--- a/upload-dir/банки_для_импорта.xlsx
+++ b/upload-dir/банки_для_импорта.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32F692E-0865-4B48-B5EF-42E4E8849159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBFB31C-E137-1B4F-B927-17A1C3CD1565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15480" xr2:uid="{CECFA537-0F59-044D-B3FE-B82952F914E1}"/>
+    <workbookView xWindow="21180" yWindow="1480" windowWidth="27640" windowHeight="15480" xr2:uid="{CECFA537-0F59-044D-B3FE-B82952F914E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,1843 +37,1843 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="613">
   <si>
+    <t>kvfedosimov@sberbank.ru</t>
+  </si>
+  <si>
+    <t>Сheck Point</t>
+  </si>
+  <si>
+    <t>Саенко Марк Николаевич</t>
+  </si>
+  <si>
+    <t>Сбербанк</t>
+  </si>
+  <si>
+    <t>mnsaenko@sberbank.ru</t>
+  </si>
+  <si>
+    <t>+79186899069</t>
+  </si>
+  <si>
+    <t>Сергей Иванович Батаев</t>
+  </si>
+  <si>
+    <t>serg@nbdbank.ru</t>
+  </si>
+  <si>
+    <t>Родион Родион</t>
+  </si>
+  <si>
+    <t>Dubrovskiy.R.V@sberbank.ru</t>
+  </si>
+  <si>
+    <t>Ветров Юрий 0</t>
+  </si>
+  <si>
+    <t>Vetrov.Y.O@sberbank.ru</t>
+  </si>
+  <si>
+    <t>Максим Григорьев 0</t>
+  </si>
+  <si>
+    <t>mgrigorev@vtb.ru</t>
+  </si>
+  <si>
+    <t>s@timerbank.ru</t>
+  </si>
+  <si>
+    <t>tn@bars-open.ru</t>
+  </si>
+  <si>
+    <t>averichev.dv@vtb24.ru</t>
+  </si>
+  <si>
+    <t>Потапенко Николай Владимирович Потапенко</t>
+  </si>
+  <si>
+    <t>potapenko@viking.spb.ru</t>
+  </si>
+  <si>
+    <t>Антон Дёмин</t>
+  </si>
+  <si>
+    <t>ademin@raiffeisen.ru</t>
+  </si>
+  <si>
+    <t>+78127219900</t>
+  </si>
+  <si>
+    <t>Клигман Леонид</t>
+  </si>
+  <si>
+    <t>leonid@nbdbank.ru</t>
+  </si>
+  <si>
+    <t>+78312308061</t>
+  </si>
+  <si>
+    <t>kznGainutdinovRV@KAZAN.VTB24.RU</t>
+  </si>
+  <si>
+    <t>Антон Колпаков 0</t>
+  </si>
+  <si>
+    <t>Банк Аверс</t>
+  </si>
+  <si>
+    <t>kolpakoval@aversbank.ru</t>
+  </si>
+  <si>
+    <t>bogdanov@vbrr.ru</t>
+  </si>
+  <si>
+    <t>+74959330343</t>
+  </si>
+  <si>
+    <t>Ильнур Шукаев</t>
+  </si>
+  <si>
+    <t>ilnur.shaykhiev@raiffeisen.ru</t>
+  </si>
+  <si>
+    <t>+74957219900</t>
+  </si>
+  <si>
+    <t>Глеб</t>
+  </si>
+  <si>
+    <t>popov@vtb24.ru</t>
+  </si>
+  <si>
+    <t>+79636552193</t>
+  </si>
+  <si>
+    <t>iplitvintsev@sberbank.ru</t>
+  </si>
+  <si>
+    <t>vsetrofimenko@sberbank.ru</t>
+  </si>
+  <si>
+    <t>Магомед Чаниев Магомед</t>
+  </si>
+  <si>
+    <t>Сберсервис</t>
+  </si>
+  <si>
+    <t>mschaniev@sberbank.ru</t>
+  </si>
+  <si>
+    <t>shipunov@vbrr.ru</t>
+  </si>
+  <si>
+    <t>Аузинь Юрий Вальтерович 0</t>
+  </si>
+  <si>
+    <t>ПАО «МЕТКОМБАНК»</t>
+  </si>
+  <si>
+    <t>AuzinYV@metcom.ru</t>
+  </si>
+  <si>
+    <t>potapenkon@viking.spb.ru</t>
+  </si>
+  <si>
+    <t>Смирнов Илья</t>
+  </si>
+  <si>
+    <t>ismirnov@tkbip.ru</t>
+  </si>
+  <si>
+    <t>+79112201774</t>
+  </si>
+  <si>
+    <t>dsergeev2@rencredit.ru</t>
+  </si>
+  <si>
+    <t>Сергей Локтионов</t>
+  </si>
+  <si>
+    <t>common.spb@raiffeisen.ru</t>
+  </si>
+  <si>
+    <t>+78121186808</t>
+  </si>
+  <si>
+    <t>Алексей Громов</t>
+  </si>
+  <si>
+    <t>agromov@raiffeisen.ru</t>
+  </si>
+  <si>
+    <t>+4957219900</t>
+  </si>
+  <si>
+    <t>Анатолий Лепехин</t>
+  </si>
+  <si>
+    <t>anatoly_lepekhin@sberbank-cib.ru</t>
+  </si>
+  <si>
+    <t>+79067898989</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>kalinovaov@vtb24.ru</t>
+  </si>
+  <si>
+    <t>krasnova@mcbank.ru</t>
+  </si>
+  <si>
+    <t>АКБ ""Кузбассхимбанк"" (ПАО) 0</t>
+  </si>
+  <si>
+    <t>gerasimov@kuzbasshimbank.ru</t>
+  </si>
+  <si>
+    <t>korpachev@cbrca.ru</t>
+  </si>
+  <si>
+    <t>Ирина</t>
+  </si>
+  <si>
+    <t>mzolotarevskaya@rencredit.ru</t>
+  </si>
+  <si>
+    <t>dsasulin@rencredit.ru</t>
+  </si>
+  <si>
+    <t>+74957834600</t>
+  </si>
+  <si>
+    <t>Владимир Савинов</t>
+  </si>
+  <si>
+    <t>savinov@nbdbank.ru</t>
+  </si>
+  <si>
+    <t>Турик Владислав Васильевич '-</t>
+  </si>
+  <si>
+    <t>tvv1@cbr.ru</t>
+  </si>
+  <si>
+    <t>+84957539705</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>pavlukevichd@aversbank.ru</t>
+  </si>
+  <si>
+    <t>Петр Салмасов</t>
+  </si>
+  <si>
+    <t>ПАО Сбербанк</t>
+  </si>
+  <si>
+    <t>ppsalmasov@sberbank.ru</t>
+  </si>
+  <si>
+    <t>+79826102999</t>
+  </si>
+  <si>
+    <t>Михаил Полетаев</t>
+  </si>
+  <si>
+    <t>mpoletaev@sberbank.ru</t>
+  </si>
+  <si>
+    <t>+79036908355</t>
+  </si>
+  <si>
+    <t>assist-Rusanova@vtb24.ru</t>
+  </si>
+  <si>
+    <t>Демидов СергейДемидов Сергей МихайловичДемидов Сергей 0</t>
+  </si>
+  <si>
+    <t>ТКБ Инвестмент Партнерс</t>
+  </si>
+  <si>
+    <t>S.Demidov@tkbip.ru</t>
+  </si>
+  <si>
+    <t>+79500397875</t>
+  </si>
+  <si>
+    <t>bkw@vbrr.ru</t>
+  </si>
+  <si>
+    <t>Андрей Александрович Савельев</t>
+  </si>
+  <si>
+    <t>safety01@okbank.ru</t>
+  </si>
+  <si>
+    <t>Александр ПавловАлександр Александр</t>
+  </si>
+  <si>
+    <t>pavlovas1@vtb.ru</t>
+  </si>
+  <si>
+    <t>Александр Новожилов 0</t>
+  </si>
+  <si>
+    <t>novozhilov@mcbank.ru</t>
+  </si>
+  <si>
+    <t>Сергей Мясоедов</t>
+  </si>
+  <si>
+    <t>mss@lanta.ru</t>
+  </si>
+  <si>
+    <t>Москвич Дмитрий НиколаевичМосквич Дмитрий Николаевич 0</t>
+  </si>
+  <si>
+    <t>МТС Банк</t>
+  </si>
+  <si>
+    <t>dmoskvich@mtsbank.ru</t>
+  </si>
+  <si>
+    <t>Андрей Левшин</t>
+  </si>
+  <si>
+    <t>levis@viking.spb.ru</t>
+  </si>
+  <si>
+    <t>+79215857799</t>
+  </si>
+  <si>
+    <t>Антон Антон</t>
+  </si>
+  <si>
+    <t>ДИТ ЦБ РФ</t>
+  </si>
+  <si>
+    <t>krishtoforap@cbrf-dit.ru</t>
+  </si>
+  <si>
+    <t>ЕленаСафаровГорбанк СахаровДмитрий0</t>
+  </si>
+  <si>
+    <t>Петербургский городской банк, АКБ, ЗАО0</t>
+  </si>
+  <si>
+    <t>bank@gorbank.spb.ru</t>
+  </si>
+  <si>
+    <t>Владислав Метелев 5045</t>
+  </si>
+  <si>
+    <t>НБД Банк</t>
+  </si>
+  <si>
+    <t>vlad@nbdbank.ru</t>
+  </si>
+  <si>
+    <t>+78314343980</t>
+  </si>
+  <si>
+    <t>Сачков АлександрСачков Александр 0</t>
+  </si>
+  <si>
+    <t>Банк ВТБ</t>
+  </si>
+  <si>
+    <t>sachkov.aa@vtb.ru</t>
+  </si>
+  <si>
+    <t>Игорь ГодинИгорь ГодинИгорь Годин 0</t>
+  </si>
+  <si>
+    <t>Банк ВБРР (АО)Банк ВБРР (АО)Банк ВБРР (АО)</t>
+  </si>
+  <si>
+    <t>godin_im@vbrr.ru</t>
+  </si>
+  <si>
+    <t>Andrey_Zuev@sberbank-am.ru</t>
+  </si>
+  <si>
+    <t>zhelanova@mcbank.ru</t>
+  </si>
+  <si>
+    <t>Андрей Петелин</t>
+  </si>
+  <si>
+    <t>APetelin@viking.spb.ru</t>
+  </si>
+  <si>
+    <t>+78123203320</t>
+  </si>
+  <si>
+    <t>Артем ВолощукАртем Волощук 0</t>
+  </si>
+  <si>
+    <t>ПАО СбербанкСбербанк</t>
+  </si>
+  <si>
+    <t>asvoloshuk@sberbank.ru</t>
+  </si>
+  <si>
+    <t>Олег АксеновОлег Аксенов 0</t>
+  </si>
+  <si>
+    <t>o.aksenov@tkbip.ru</t>
+  </si>
+  <si>
+    <t>Подрез Александр ВладимировичПодрез Александр Владимирович 0</t>
+  </si>
+  <si>
+    <t>Комплексные системы</t>
+  </si>
+  <si>
+    <t>avp@okbank.ru</t>
+  </si>
+  <si>
+    <t>pnazarov@mtsbank.ru</t>
+  </si>
+  <si>
+    <t>Scst</t>
+  </si>
+  <si>
+    <t>scst@sberbank.ru</t>
+  </si>
+  <si>
+    <t>Александр ПавловАлександр Павлов 0</t>
+  </si>
+  <si>
+    <t>pavlovas@nwr.vtb.ru</t>
+  </si>
+  <si>
+    <t>Дмитрий БатуроДмитрий Батуро Дмитрий</t>
+  </si>
+  <si>
+    <t>dbaturo@spb.mtsbank.ru</t>
+  </si>
+  <si>
+    <t>Сергей МясоедовСергей Мясоедов 0</t>
+  </si>
+  <si>
+    <t>АКБ «Ланта-Банк» (АО)</t>
+  </si>
+  <si>
+    <t>myasoedov.ss@lanta.ru</t>
+  </si>
+  <si>
+    <t>Роман ВербицкийВербицкий Роман 0</t>
+  </si>
+  <si>
+    <t>Чайна Констракшн Банк</t>
+  </si>
+  <si>
+    <t>sb@ccbrussia.ru</t>
+  </si>
+  <si>
+    <t>Сергей Сачков</t>
+  </si>
+  <si>
+    <t>sachkov@vtb24.ru</t>
+  </si>
+  <si>
+    <t>+79636552281</t>
+  </si>
+  <si>
+    <t>Денис Ефимов</t>
+  </si>
+  <si>
+    <t>d.efimov@okbank.ru</t>
+  </si>
+  <si>
+    <t>Васильев Артем АлександровичВасильев Артем Александрович 0</t>
+  </si>
+  <si>
+    <t>VasiljevArA@tambov.vtb24.ru</t>
+  </si>
+  <si>
+    <t>Фадеев АлександрФадеев Александр 0</t>
+  </si>
+  <si>
+    <t>Банк Сбербанк</t>
+  </si>
+  <si>
+    <t>fadeev.a.and@sberbank.ru</t>
+  </si>
+  <si>
+    <t>Александр РубчукАлександр Рубчук 0</t>
+  </si>
+  <si>
+    <t>A.Rubchuk@mtsbank.ru</t>
+  </si>
+  <si>
+    <t>Александр Серебряков</t>
+  </si>
+  <si>
+    <t>aserebryakov@vtb.ru</t>
+  </si>
+  <si>
+    <t>Руслан БялькинРуслан БялькинРуслан Бялькин 0</t>
+  </si>
+  <si>
+    <t>СбербанкСбербанкСбербанк</t>
+  </si>
+  <si>
+    <t>byalkin.r.ni@sberbank.ru</t>
+  </si>
+  <si>
+    <t>Колотушкин Владимир МихайловичКолотушкин Владимир Михайлович 0</t>
+  </si>
+  <si>
+    <t>Сбербанк-Технологии</t>
+  </si>
+  <si>
+    <t>vmkolotushkin.sbsrv@sberbank.ru</t>
+  </si>
+  <si>
+    <t>Николай Потапенко</t>
+  </si>
+  <si>
+    <t>nikep@viking.spb.ru</t>
+  </si>
+  <si>
+    <t>Борис Леонидович</t>
+  </si>
+  <si>
+    <t>pbl@cbr.ru</t>
+  </si>
+  <si>
+    <t>Александр МедведкинАлександр МедведкинАлександр Медведкин 0</t>
+  </si>
+  <si>
+    <t>medvedkin.a.vy@sberbank.ru</t>
+  </si>
+  <si>
+    <t>Александр Нагорнюк Александр</t>
+  </si>
+  <si>
+    <t>a.nagornyuk@tkbip.ru</t>
+  </si>
+  <si>
+    <t>Andreevmn@cbr.ru</t>
+  </si>
+  <si>
+    <t>Сергей Врунов</t>
+  </si>
+  <si>
+    <t>vrunov@vtb24.ru</t>
+  </si>
+  <si>
+    <t>Артём Артём</t>
+  </si>
+  <si>
+    <t>adminsecuritydit@cbr.ru</t>
+  </si>
+  <si>
+    <t>Егор Морозов Егор</t>
+  </si>
+  <si>
+    <t>Банк Россия</t>
+  </si>
+  <si>
+    <t>03svc_ckibkrd@cbr.ru</t>
+  </si>
+  <si>
+    <t>puv@msk.vtb.ru</t>
+  </si>
+  <si>
+    <t>tpp@cbr.ru</t>
+  </si>
+  <si>
+    <t>Гершинский Александр ЯковлевичГершинский Александр 0</t>
+  </si>
+  <si>
+    <t>a.gershinskiy@tkbip.ru</t>
+  </si>
+  <si>
+    <t>Илья Смирнов</t>
+  </si>
+  <si>
+    <t>i.smirnov@tkbip.ru</t>
+  </si>
+  <si>
+    <t>+78123327332</t>
+  </si>
+  <si>
+    <t>Булдаков Сергей 0</t>
+  </si>
+  <si>
+    <t>s.buldakov@tkbip.ru</t>
+  </si>
+  <si>
+    <t>Банк Спутник 0</t>
+  </si>
+  <si>
+    <t>utushev@banksputnik.ru</t>
+  </si>
+  <si>
+    <t>palex@vtb.ru</t>
+  </si>
+  <si>
+    <t>Алексей Родионов</t>
+  </si>
+  <si>
+    <t>rodionovay@vtb24.ru</t>
+  </si>
+  <si>
+    <t>Александр Кремлёв</t>
+  </si>
+  <si>
+    <t>69svc_ckib@cbr.ru</t>
+  </si>
+  <si>
+    <t>+79138550014</t>
+  </si>
+  <si>
+    <t>Игорь</t>
+  </si>
+  <si>
+    <t>kia10@cbr.ru</t>
+  </si>
+  <si>
+    <t>Evgeny Starostin</t>
+  </si>
+  <si>
+    <t>sej2@cbr.ru</t>
+  </si>
+  <si>
+    <t>Сергей Алексеевич Замотин Замотин</t>
+  </si>
+  <si>
+    <t>zamotin@vtb.ru</t>
+  </si>
+  <si>
+    <t>+79859283615</t>
+  </si>
+  <si>
+    <t>safety@okbank.ru</t>
+  </si>
+  <si>
+    <t>georgiy.repin@open.ru</t>
+  </si>
+  <si>
+    <t>Александр Косенков Александр</t>
+  </si>
+  <si>
+    <t>kosenkov.ap@lanta.ru</t>
+  </si>
+  <si>
+    <t>popovich.di@open.ru</t>
+  </si>
+  <si>
+    <t>Pigareva Natalia 0</t>
+  </si>
+  <si>
+    <t>pigareva.nb@lanta.ru</t>
+  </si>
+  <si>
+    <t>Сергей Нагибин</t>
+  </si>
+  <si>
+    <t>atv1@cbr.ru</t>
+  </si>
+  <si>
+    <t>+4957539724</t>
+  </si>
+  <si>
+    <t>ofinoshin@rencredit.ru</t>
+  </si>
+  <si>
+    <t>Денис Александрович Бурлаков Бурлаков</t>
+  </si>
+  <si>
+    <t>burlakovda@vtb24.ru</t>
+  </si>
+  <si>
+    <t>Александр Шевчук Александр</t>
+  </si>
+  <si>
+    <t>ООО "Сбербанк Факторинг"</t>
+  </si>
+  <si>
+    <t>ANShevchuk@sberbank-factoring.ru</t>
+  </si>
+  <si>
+    <t>Ramil Khabibrakhmanov</t>
+  </si>
+  <si>
+    <t>ramil@vtb24.ru</t>
+  </si>
+  <si>
+    <t>Александр Махиня</t>
+  </si>
+  <si>
+    <t>aleksandr.makhinya@open.ru</t>
+  </si>
+  <si>
+    <t>+74957558866</t>
+  </si>
+  <si>
+    <t>sachkov.aa@vtb24.ru</t>
+  </si>
+  <si>
+    <t>Николай МорозенковНиколай Морозенков 0</t>
+  </si>
+  <si>
+    <t>nmorozenkov@vtb.ru</t>
+  </si>
+  <si>
+    <t>Николай Ермаков 0</t>
+  </si>
+  <si>
+    <t>env@vtb.ru</t>
+  </si>
+  <si>
+    <t>Алексей ТаловиковАлексей Таловиков 0</t>
+  </si>
+  <si>
+    <t>talovikovav@vtb.ru</t>
+  </si>
+  <si>
+    <t>Сергей ПоповСергей Попов 0</t>
+  </si>
+  <si>
+    <t>popovsg@nwr.vtb.ru</t>
+  </si>
+  <si>
+    <t>Ермаков Николай Владимирович Ермаков</t>
+  </si>
+  <si>
+    <t>env@spb.vtb24.ru</t>
+  </si>
+  <si>
+    <t>nshirokova@raiffeisen.ru</t>
+  </si>
+  <si>
+    <t>innokentiy.andruschenko@open.ru</t>
+  </si>
+  <si>
+    <t>ПавелШУРОВ П.Ю. Шуров0</t>
+  </si>
+  <si>
+    <t>АО ВБРР</t>
+  </si>
+  <si>
+    <t>shurov@vbrr.ru</t>
+  </si>
+  <si>
+    <t>kaa8@cbr.ru</t>
+  </si>
+  <si>
+    <t>ij23@msk.vtb.ru</t>
+  </si>
+  <si>
+    <t>+74957397799</t>
+  </si>
+  <si>
+    <t>dmironov@raiffeisen.ru</t>
+  </si>
+  <si>
+    <t>Максим Позняк</t>
+  </si>
+  <si>
+    <t>pozniak@open.ru</t>
+  </si>
+  <si>
+    <t>+4957775656</t>
+  </si>
+  <si>
+    <t>avv5@cbr.ru</t>
+  </si>
+  <si>
+    <t>aristov.sy@vtb24.ru</t>
+  </si>
+  <si>
+    <t>Morozova.NN@vtb24.ru</t>
+  </si>
+  <si>
+    <t>romanov@aversbank.ru</t>
+  </si>
+  <si>
+    <t>psv@cbr.ru</t>
+  </si>
+  <si>
+    <t>aserebryakov@msk.vtb.ru</t>
+  </si>
+  <si>
+    <t>ksv1@cbr.ru</t>
+  </si>
+  <si>
+    <t>+4957719100</t>
+  </si>
+  <si>
+    <t>Таловиков Алексей Викторович Таловиков</t>
+  </si>
+  <si>
+    <t>talovikov.av@spb.vtb24.ru</t>
+  </si>
+  <si>
+    <t>Андрей Валентинович Понкин Андрей Валентинович</t>
+  </si>
+  <si>
+    <t>ponkinav@metcom.ru</t>
+  </si>
+  <si>
+    <t>+49575580940</t>
+  </si>
+  <si>
+    <t>Денис Лукин</t>
+  </si>
+  <si>
+    <t>Райффайзенбанк</t>
+  </si>
+  <si>
+    <t>dlukin@raiffeisen.ru</t>
+  </si>
+  <si>
+    <t>+79213427716</t>
+  </si>
+  <si>
+    <t>Лаптев Сергей Вячеславович</t>
+  </si>
+  <si>
+    <t>АО“Райффайзенбанк”</t>
+  </si>
+  <si>
+    <t>SLAPTEV@raiffeisen.ru</t>
+  </si>
+  <si>
+    <t>+79217600243</t>
+  </si>
+  <si>
+    <t>Тяпкова Ирина Александровна</t>
+  </si>
+  <si>
+    <t>Чек Пойнт Софтвэр Текнолоджиз (Раша) (ПАО Банк «ФК Открытие»)</t>
+  </si>
+  <si>
+    <t>tyapkova@open.ru</t>
+  </si>
+  <si>
+    <t>+79296151518</t>
+  </si>
+  <si>
+    <t>Валерий Константинов</t>
+  </si>
+  <si>
+    <t>valery.konstantinov@raiffeisen.ru</t>
+  </si>
+  <si>
+    <t>+79214140863</t>
+  </si>
+  <si>
+    <t>Батуро Дмитрий Александрович Батуро</t>
+  </si>
+  <si>
+    <t>DBaturo@mtsbank.ru</t>
+  </si>
+  <si>
+    <t>+79052769590</t>
+  </si>
+  <si>
+    <t>Александр Иванов</t>
+  </si>
+  <si>
+    <t>Банк Открытие Факторинг</t>
+  </si>
+  <si>
+    <t>ivanov_alva@open.ru</t>
+  </si>
+  <si>
+    <t>+79055660085</t>
+  </si>
+  <si>
+    <t>Николай Рыжков</t>
+  </si>
+  <si>
+    <t>Банк ВБРР (АО)</t>
+  </si>
+  <si>
+    <t>ryzhkov@vbrr.ru</t>
+  </si>
+  <si>
+    <t>Wwww</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>vtbzrdubxggwibtiat@wqcefp.com</t>
+  </si>
+  <si>
+    <t>+79112281982</t>
+  </si>
+  <si>
+    <t>Сергей Ануфриев</t>
+  </si>
+  <si>
+    <t>anufriev@vbrr.ru</t>
+  </si>
+  <si>
+    <t>+79169271233</t>
+  </si>
+  <si>
+    <t>Дмитрий Андреевич</t>
+  </si>
+  <si>
+    <t>Горбанк</t>
+  </si>
+  <si>
+    <t>info@gorbank.spb.ru</t>
+  </si>
+  <si>
+    <t>+78124499581</t>
+  </si>
+  <si>
+    <t>Искендер</t>
+  </si>
+  <si>
+    <t>Eriell</t>
+  </si>
+  <si>
+    <t>daniil.belitskiy@open.ru</t>
+  </si>
+  <si>
+    <t>+79152427699</t>
+  </si>
+  <si>
+    <t>Лещева Наталья Сергеевна</t>
+  </si>
+  <si>
+    <t>РНКБ</t>
+  </si>
+  <si>
+    <t>LeschevaNS@rncb.ru</t>
+  </si>
+  <si>
+    <t>+79152979215</t>
+  </si>
+  <si>
+    <t>Виктор Янковский</t>
+  </si>
+  <si>
+    <t>yankovskiyvf@rncb.ru</t>
+  </si>
+  <si>
+    <t>Пётр Сапьян</t>
+  </si>
+  <si>
+    <t>psapyan@renins.com</t>
+  </si>
+  <si>
+    <t>r.gainutdinov@uralfd.ru</t>
+  </si>
+  <si>
+    <t>o.bannikov@uralfd.ru</t>
+  </si>
+  <si>
+    <t>+73422401075</t>
+  </si>
+  <si>
+    <t>Алексей Лаврусевич</t>
+  </si>
+  <si>
+    <t>ЦФТ</t>
+  </si>
+  <si>
+    <t>a.lavrusevich@cft.ru</t>
+  </si>
+  <si>
+    <t>Вусал Мамедов</t>
+  </si>
+  <si>
+    <t>v.mamedov@ibam.ru</t>
+  </si>
+  <si>
+    <t>+74959377727</t>
+  </si>
+  <si>
+    <t>Павел Надёжин</t>
+  </si>
+  <si>
+    <t>nadezhin@mbbru.ru</t>
+  </si>
+  <si>
+    <t>+79165705599</t>
+  </si>
+  <si>
+    <t>lisitsynrb@eliz-spb.ru</t>
+  </si>
+  <si>
+    <t>Ярослав Буслаев</t>
+  </si>
+  <si>
+    <t>j.buslaev@cft.ru</t>
+  </si>
+  <si>
+    <t>+73833364949</t>
+  </si>
+  <si>
+    <t>Вячеслав Валенко Вячеслав</t>
+  </si>
+  <si>
+    <t>v.valenko@cft.ru</t>
+  </si>
+  <si>
+    <t>VDemchenko@vtb-leasing.com</t>
+  </si>
+  <si>
+    <t>Юрий Панкратьев</t>
+  </si>
+  <si>
+    <t>py@pscb.ru</t>
+  </si>
+  <si>
+    <t>ka@pscb.ru</t>
+  </si>
+  <si>
+    <t>Прокопенко Игорь</t>
+  </si>
+  <si>
+    <t>Igor.Prokopenko@atekselectro.ru</t>
+  </si>
+  <si>
+    <t>+79219763215</t>
+  </si>
+  <si>
+    <t>Максачук</t>
+  </si>
+  <si>
+    <t>Петербургский социальный коммерческий банк, ОАО</t>
+  </si>
+  <si>
+    <t>mpv@pscb.ru</t>
+  </si>
+  <si>
+    <t>aglebov@vtb-leasing.ru</t>
+  </si>
+  <si>
+    <t>+4955141651</t>
+  </si>
+  <si>
+    <t>Олег Суханов</t>
+  </si>
+  <si>
+    <t>osukhanov@renins.com</t>
+  </si>
+  <si>
+    <t>korobkinaa@onlanta.ru</t>
+  </si>
+  <si>
+    <t>Набокин Алексей Михайлович 0</t>
+  </si>
+  <si>
+    <t>Банк ДОМ.РФ</t>
+  </si>
+  <si>
+    <t>aleksei.nabokin@domrf.ru</t>
+  </si>
+  <si>
+    <t>Воронцов Артем Алексеевич 0</t>
+  </si>
+  <si>
+    <t>Дом РФ</t>
+  </si>
+  <si>
+    <t>artem.vorontsov@domrf.ru</t>
+  </si>
+  <si>
+    <t>Владимир МорозовВладимир Морозов 0</t>
+  </si>
+  <si>
+    <t>Северный народный банк</t>
+  </si>
+  <si>
+    <t>morozov@sevnb.ru</t>
+  </si>
+  <si>
+    <t>Станислав КучинитскийСтанислав Кучинитский 0</t>
+  </si>
+  <si>
+    <t>OpenWay Group</t>
+  </si>
+  <si>
+    <t>skuchinskiy@openwaygroup.com</t>
+  </si>
+  <si>
+    <t>VladimirВладимир Volkov</t>
+  </si>
+  <si>
+    <t>dxnet@pscb.ru</t>
+  </si>
+  <si>
+    <t>sag@pscb.ru</t>
+  </si>
+  <si>
+    <t>next@anrb.ru</t>
+  </si>
+  <si>
+    <t>robert@lantaservice.com</t>
+  </si>
+  <si>
+    <t>ДмитрийГырлин ГырлинДмитрий</t>
+  </si>
+  <si>
+    <t>dgirlin@spb.renins.com</t>
+  </si>
+  <si>
+    <t>Дмитрий Боровков</t>
+  </si>
+  <si>
+    <t>LeshchenkoLV@vtb-emng.ru</t>
+  </si>
+  <si>
+    <t>+78123333445</t>
+  </si>
+  <si>
+    <t>s.osipchuk@cft.ru</t>
+  </si>
+  <si>
+    <t>isbnk@isbnk.ru</t>
+  </si>
+  <si>
+    <t>Сергей Дуликов Сергей</t>
+  </si>
+  <si>
+    <t>Межгосударственный банк</t>
+  </si>
+  <si>
+    <t>dsa@isbnk.ru</t>
+  </si>
+  <si>
+    <t>MakarovAO@rncb.ru</t>
+  </si>
+  <si>
+    <t>Andrey.Kuznetsov@cft.ru</t>
+  </si>
+  <si>
+    <t>mto@anrb.ru</t>
+  </si>
+  <si>
+    <t>Евгений Скляров</t>
+  </si>
+  <si>
+    <t>sen@vtbsd.ru</t>
+  </si>
+  <si>
+    <t>+74959563070</t>
+  </si>
+  <si>
+    <t>Прокопенко Юрий</t>
+  </si>
+  <si>
+    <t>yprokopenko@ncrimea.ru</t>
+  </si>
+  <si>
+    <t>+3652788222</t>
+  </si>
+  <si>
+    <t>Сергей Иосифович Ковалев</t>
+  </si>
+  <si>
+    <t>ksi@isbnk.ru</t>
+  </si>
+  <si>
+    <t>AMikhailov2@renins.com</t>
+  </si>
+  <si>
+    <t>Игорь Павлович Шнурко</t>
+  </si>
+  <si>
+    <t>i.shnurko@cft.ru</t>
+  </si>
+  <si>
+    <t>ausov@renins.com</t>
+  </si>
+  <si>
+    <t>Дмитрий Гырлин</t>
+  </si>
+  <si>
+    <t>renins@renins.com</t>
+  </si>
+  <si>
+    <t>Столяров Олег Семёнович</t>
+  </si>
+  <si>
+    <t>ООО «ЛАНИТ-ТЕХНОЛОГИИ»</t>
+  </si>
+  <si>
+    <t>stolyarov@onlanta.ru</t>
+  </si>
+  <si>
+    <t>VBulgakov@renins.com</t>
+  </si>
+  <si>
+    <t>Марина Богданова</t>
+  </si>
+  <si>
+    <t>m.pahomova@sdm.ur.ru</t>
+  </si>
+  <si>
+    <t>Солонин Владимир 0</t>
+  </si>
+  <si>
+    <t>СДМ-Банк</t>
+  </si>
+  <si>
+    <t>solonin@sdm.ru</t>
+  </si>
+  <si>
+    <t>okhizhnyak@vtb-leasing.com</t>
+  </si>
+  <si>
+    <t>Александр Александр</t>
+  </si>
+  <si>
+    <t>LitvinovAS@rncb.ru</t>
+  </si>
+  <si>
+    <t>Горбунов Б. В.</t>
+  </si>
+  <si>
+    <t>ООО</t>
+  </si>
+  <si>
+    <t>IvanovAL@vtb-bank.by</t>
+  </si>
+  <si>
+    <t>+79037315782</t>
+  </si>
+  <si>
+    <t>Владислав Лебедев</t>
+  </si>
+  <si>
+    <t>vlebedev@renins.com</t>
+  </si>
+  <si>
+    <t>Виктор Шевцов Виктор</t>
+  </si>
+  <si>
+    <t>Центр Финансовых Технологий</t>
+  </si>
+  <si>
+    <t>v.shevtsov@cft.ru</t>
+  </si>
+  <si>
+    <t>Samarov@sdm.ru</t>
+  </si>
+  <si>
+    <t>Мухаморин</t>
+  </si>
+  <si>
+    <t>pmukhamorin@openv.ru</t>
+  </si>
+  <si>
+    <t>Воронко</t>
+  </si>
+  <si>
+    <t>Петербургский социальный коммерческий банк, ЗАО</t>
+  </si>
+  <si>
+    <t>vdv@pscb.ru</t>
+  </si>
+  <si>
+    <t>Олег Илюхин</t>
+  </si>
+  <si>
+    <t>sdm@sdm.ru</t>
+  </si>
+  <si>
+    <t>+4957059090</t>
+  </si>
+  <si>
+    <t>Барский</t>
+  </si>
+  <si>
+    <t>Балтийская металлургическая компания</t>
+  </si>
+  <si>
+    <t>bmc@baltmetcompany.ru</t>
+  </si>
+  <si>
+    <t>Алексей Смольянинов 0</t>
+  </si>
+  <si>
+    <t>aleksei.smolyaninov@domrf.ru</t>
+  </si>
+  <si>
+    <t>+74957758686</t>
+  </si>
+  <si>
+    <t>Банк Урал ФД 0</t>
+  </si>
+  <si>
+    <t>d.volkov@uralfd.ru</t>
+  </si>
+  <si>
+    <t>Шельдяков Илья Андреевич Шельдяков Илья Андреевич</t>
+  </si>
+  <si>
+    <t>ПСКБ Банк</t>
+  </si>
+  <si>
+    <t>sia@pscb.ru</t>
+  </si>
+  <si>
+    <t>+79213505460</t>
+  </si>
+  <si>
+    <t>Артём КайгородовАртём Кайгородов 0</t>
+  </si>
+  <si>
+    <t>Энерголайн</t>
+  </si>
+  <si>
+    <t>kaygorodov@topenergoline.ru</t>
+  </si>
+  <si>
+    <t>kan@lantan.ru</t>
+  </si>
+  <si>
+    <t>Борис Богданов Прио 0</t>
+  </si>
+  <si>
+    <t>oib@priovtb.com</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>iljuhin@sdm.ru</t>
+  </si>
+  <si>
+    <t>Беляев</t>
+  </si>
+  <si>
+    <t>vbelyaev@spb.renins.com</t>
+  </si>
+  <si>
+    <t>krasnik@sdm.ru</t>
+  </si>
+  <si>
+    <t>austinov@renins.com</t>
+  </si>
+  <si>
+    <t>Машков Дмитрий Вячеславович 0</t>
+  </si>
+  <si>
+    <t>НКО Монета</t>
+  </si>
+  <si>
+    <t>dmitry.mashkov@payanyway.ru</t>
+  </si>
+  <si>
+    <t>sell@ilanta-soft.ru</t>
+  </si>
+  <si>
+    <t>СергейВащенко Сергей Борисович Ващенко0</t>
+  </si>
+  <si>
+    <t>sbv@isbnk.ru</t>
+  </si>
+  <si>
+    <t>e.prishlyak@cft.ru</t>
+  </si>
+  <si>
+    <t>Ушаков П.</t>
+  </si>
+  <si>
+    <t>ushakov_pa@vtbdc.ru</t>
+  </si>
+  <si>
+    <t>+84957950042</t>
+  </si>
+  <si>
+    <t>Дмитрий Егоров</t>
+  </si>
+  <si>
+    <t>OpenWayOpenWay Group</t>
+  </si>
+  <si>
+    <t>degorov@openwaygroup.com</t>
+  </si>
+  <si>
+    <t>+79219620589</t>
+  </si>
+  <si>
+    <t>spb@uralsibbank.ru</t>
+  </si>
+  <si>
+    <t>+73472735835</t>
+  </si>
+  <si>
+    <t>vei@gibank.ru</t>
+  </si>
+  <si>
+    <t>Konstantin.Tikhonov@ca-cib.com</t>
+  </si>
+  <si>
+    <t>Иван Маршев</t>
+  </si>
+  <si>
+    <t>ivan.marshev@unicredit.ru</t>
+  </si>
+  <si>
+    <t>+74952587258</t>
+  </si>
+  <si>
+    <t>Oleg.Rumyantsev@unicreditgroup.ru</t>
+  </si>
+  <si>
+    <t>Andrey Kuritcyn</t>
+  </si>
+  <si>
+    <t>a.kuritcyn@tinkoff.ru</t>
+  </si>
+  <si>
+    <t>Alexander.Vishnyakov@unicreditgroup.ru</t>
+  </si>
+  <si>
+    <t>ib@tinkoff.ru</t>
+  </si>
+  <si>
+    <t>Dvavilova.external@unicredit.ru</t>
+  </si>
+  <si>
+    <t>Антон ФинюковКреди Агриколь Credit Agricole 0</t>
+  </si>
+  <si>
+    <t>anton.finyukov@ca-cib.com</t>
+  </si>
+  <si>
+    <t>Дмитрий Евдокимов</t>
+  </si>
+  <si>
+    <t>Сити Инвест Банк, АО</t>
+  </si>
+  <si>
+    <t>evdokimov@cibank.ru</t>
+  </si>
+  <si>
+    <t>+78123240690</t>
+  </si>
+  <si>
+    <t>Vitaly.Novoselov@unicreditgroup.ru</t>
+  </si>
+  <si>
+    <t>Алексей ЛукиныхАлексей ЛукиныхАлексей Лукиных 0</t>
+  </si>
+  <si>
+    <t>АО ЮниКредит БанкАО ЮниКредит БанкЮникредит Банк</t>
+  </si>
+  <si>
+    <t>aleksey.lukinykh@unicredit.ru</t>
+  </si>
+  <si>
+    <t>Лисицин АлександрЛисицин АлександрЛисицин Александр 0</t>
+  </si>
+  <si>
+    <t>UnicreditUnicreditUnicredit</t>
+  </si>
+  <si>
+    <t>aleksandr.lisitsin@unicredit.ru</t>
+  </si>
+  <si>
+    <t>Владимир ГорскинВладимир Горскин 0</t>
+  </si>
+  <si>
+    <t>Тинькофф Банк</t>
+  </si>
+  <si>
+    <t>v.gorskin@tinkoff.ru</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>alexander.shamshurin@nordea.ru</t>
+  </si>
+  <si>
+    <t>Борис Павлов</t>
+  </si>
+  <si>
+    <t>soloveva_ta2@minbank.ru</t>
+  </si>
+  <si>
+    <t>Виталий Ян</t>
+  </si>
+  <si>
+    <t>vitaly.yan@unicreditgroup.ru</t>
+  </si>
+  <si>
+    <t>Владимир Сорокин 0</t>
+  </si>
+  <si>
+    <t>Юникредит Банк</t>
+  </si>
+  <si>
+    <t>Vladimir.Sorokin@unicredit.ru</t>
+  </si>
+  <si>
+    <t>Варюхова НатальяВарюхова Наталья 0</t>
+  </si>
+  <si>
+    <t>Банк Уралсиб</t>
+  </si>
+  <si>
+    <t>varyukhovanv@spb.uralsib.ru</t>
+  </si>
+  <si>
+    <t>Тинькофф Банк (Кредиты)</t>
+  </si>
+  <si>
+    <t>credit@tinkoff.ru</t>
+  </si>
+  <si>
+    <t>Alexey.Shishkin@unicreditgroup.ru</t>
+  </si>
+  <si>
+    <t>Борис ПавловБорис Павлов 0</t>
+  </si>
+  <si>
+    <t>Московский Индустриальный Банк</t>
+  </si>
+  <si>
+    <t>pavlov_ba@minbank.ru</t>
+  </si>
+  <si>
+    <t>Алексей ИвлевАлексей Ивлев 0</t>
+  </si>
+  <si>
+    <t>aleksey.ivlev@nordea.ru</t>
+  </si>
+  <si>
+    <t>Евгений ЕрмаковЕрмаков Евгений 0</t>
+  </si>
+  <si>
+    <t>e.i.ermakov@tinkoff.ru</t>
+  </si>
+  <si>
+    <t>Игорь ЛапшинИгорь Лапшин 0</t>
+  </si>
+  <si>
+    <t>igor.lapshin@unicredit.ru</t>
+  </si>
+  <si>
+    <t>Александр Колесов</t>
+  </si>
+  <si>
+    <t>alexander.kolesov@unicreditgroup.ru</t>
+  </si>
+  <si>
+    <t>+4952587377</t>
+  </si>
+  <si>
+    <t>Авдеев Александр</t>
+  </si>
+  <si>
+    <t>AvdeevAS@uralsib.ru</t>
+  </si>
+  <si>
+    <t>+74957851212</t>
+  </si>
+  <si>
+    <t>Пачин Илья Сергеевич</t>
+  </si>
+  <si>
+    <t>pachinis@uralsib.ru</t>
+  </si>
+  <si>
+    <t>+79036824107</t>
+  </si>
+  <si>
+    <t>Евгений БузукЕвгений Бузук 0</t>
+  </si>
+  <si>
+    <t>buzukek@uralsib.ru</t>
+  </si>
+  <si>
+    <t>Шумский</t>
+  </si>
+  <si>
+    <t>shum@alexbank.ru</t>
+  </si>
+  <si>
+    <t>МИнБанк 0</t>
+  </si>
+  <si>
+    <t>astahov@minbank.ru</t>
+  </si>
+  <si>
+    <t>Mytarevali@Uralsib.Ru 0</t>
+  </si>
+  <si>
+    <t>mytarevaLI@uralsib.ru</t>
+  </si>
+  <si>
+    <t>Герман</t>
+  </si>
+  <si>
+    <t>German.Kopylov@unicreditgroup.ru</t>
+  </si>
+  <si>
+    <t>Александр Межлумов</t>
+  </si>
+  <si>
+    <t>vbank@co.voz.ru</t>
+  </si>
+  <si>
+    <t>+4957770888</t>
+  </si>
+  <si>
+    <t>zhukov_am@minbank.ru</t>
+  </si>
+  <si>
+    <t>Синченко Алексей Дмитриевич 0</t>
+  </si>
+  <si>
+    <t>Московский Индустриальный Банк (МИнБ), филиал г.Краснодар</t>
+  </si>
+  <si>
+    <t>sinchenko_ad@minbank.ru</t>
+  </si>
+  <si>
+    <t>Алексей ВалерьевичАлексей Горшков Горшков0</t>
+  </si>
+  <si>
+    <t>Нордеа Банк</t>
+  </si>
+  <si>
+    <t>aleksey.gorshkov@nordea.ru</t>
+  </si>
+  <si>
+    <t>orlov_aa@minbank.ru</t>
+  </si>
+  <si>
+    <t>Ян</t>
+  </si>
+  <si>
+    <t>ЮниКредит Банк, ЗАО</t>
+  </si>
+  <si>
+    <t>unicredit@unicreditgroup.ru</t>
+  </si>
+  <si>
+    <t>Игорь Тараник</t>
+  </si>
+  <si>
+    <t>igor.taranik@unicreditgroup.ru</t>
+  </si>
+  <si>
+    <t>+78123468410</t>
+  </si>
+  <si>
+    <t>Скляренко М.В. Евгений</t>
+  </si>
+  <si>
+    <t>ЕСЭ-ГГ</t>
+  </si>
+  <si>
+    <t>Lipatev_es@minbank.ru</t>
+  </si>
+  <si>
+    <t>+79148800486</t>
+  </si>
+  <si>
+    <t>Рамиль</t>
+  </si>
+  <si>
+    <t>ramil.sharafiev@unicredit.ru</t>
+  </si>
+  <si>
+    <t>+79654422434</t>
+  </si>
+  <si>
+    <t>Maxim Rukavichkin</t>
+  </si>
+  <si>
+    <t>maxim.rukavichkin@unicredit.ru</t>
+  </si>
+  <si>
+    <t>Mikhail Lipin</t>
+  </si>
+  <si>
+    <t>m.lipin@tinkoff.ru</t>
+  </si>
+  <si>
+    <t>alexander.markov@unicredit.ru</t>
+  </si>
+  <si>
+    <t>Сергей Захаров</t>
+  </si>
+  <si>
+    <t>zah_sa@uralsib.ru</t>
+  </si>
+  <si>
+    <t>MatveevAV@ufa.uralsib.ru</t>
+  </si>
+  <si>
+    <t>Sergey.Shchipkov@unicredit.ru</t>
+  </si>
+  <si>
+    <t>Евгений Лоханков</t>
+  </si>
+  <si>
+    <t>Evgeny.Lokhankov@unicreditgroup.ru</t>
+  </si>
+  <si>
+    <t>Александр Иванович</t>
+  </si>
+  <si>
+    <t>bordukov@minbank.ru</t>
+  </si>
+  <si>
+    <t>aae@aktivbank.ru</t>
+  </si>
+  <si>
+    <t>+78342475270</t>
+  </si>
+  <si>
+    <t>an_bebchik@minbank.ru</t>
+  </si>
+  <si>
+    <t>cso@tinkoff.ru</t>
+  </si>
+  <si>
+    <t>ВалерийВалерий СемичевВалерий Семичев СемичевВалерий</t>
+  </si>
+  <si>
+    <t>АО "Сити Инвест Банк"0</t>
+  </si>
+  <si>
+    <t>vsemichev@cibank.ru</t>
+  </si>
+  <si>
+    <t>Жебрик ЕвгенийЖебрик Евгений СергеевичЖебрик Евгений 0</t>
+  </si>
+  <si>
+    <t>ООО «САНТОРИН» (БалтБет)БалтБет Санторин</t>
+  </si>
+  <si>
+    <t>ezhebrik@baltbet.ru</t>
+  </si>
+  <si>
+    <t>+79117757921</t>
+  </si>
+  <si>
+    <t>Рубинский Максим АндреевичРубинский Максим АндреевичРубинский Максим Андреевич 0</t>
+  </si>
+  <si>
+    <t>Санторин</t>
+  </si>
+  <si>
+    <t>mrubinskiy@baltbet.ru</t>
+  </si>
+  <si>
+    <t>+79523666693</t>
+  </si>
+  <si>
+    <t>ralko@alexbank.ru</t>
+  </si>
+  <si>
+    <t>Apex Consulting Group 0</t>
+  </si>
+  <si>
+    <t>sbabalaev@cs-center.ru</t>
+  </si>
+  <si>
+    <t>Артем Мачин</t>
+  </si>
+  <si>
+    <t>amachin@BALTBET.RU</t>
+  </si>
+  <si>
+    <t>+79216523613</t>
+  </si>
+  <si>
+    <t>Чепель</t>
+  </si>
+  <si>
+    <t>Завод по переработке пластмасс им. Комсомольской правды, ОАО</t>
+  </si>
+  <si>
+    <t>assistant@kp-plant.ru</t>
+  </si>
+  <si>
+    <t>_ _</t>
+  </si>
+  <si>
+    <t>shabalinoe@baltbet.ru</t>
+  </si>
+  <si>
+    <t>i.zlobin@fbs.com</t>
+  </si>
+  <si>
+    <t>Дмитрий Аниканов</t>
+  </si>
+  <si>
+    <t>adg@vebcapital.ru</t>
+  </si>
+  <si>
+    <t>+79167709597</t>
+  </si>
+  <si>
+    <t>Assist 0</t>
+  </si>
+  <si>
+    <t>kkostenko@assist.ru</t>
+  </si>
+  <si>
+    <t>danikanov@vebcapital.ru</t>
+  </si>
+  <si>
+    <t>Александр Сулейманов</t>
+  </si>
+  <si>
+    <t>sav@baltbet.com</t>
+  </si>
+  <si>
+    <t>+78123854733</t>
+  </si>
+  <si>
+    <t>Sementsova@assist-24.ru</t>
+  </si>
+  <si>
+    <t>Денис</t>
+  </si>
+  <si>
+    <t>dkurnakov@assist.ru</t>
+  </si>
+  <si>
+    <t>Евгений Александрович ВоропаевЕвгений Воропаев ВоропаевЕвгений</t>
+  </si>
+  <si>
+    <t>ООО "Атлантик-М"</t>
+  </si>
+  <si>
+    <t>evoropaev@bkfon.ru</t>
+  </si>
+  <si>
+    <t>gm.assistant@zepter.ru</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email:</t>
+  </si>
+  <si>
     <t>custom:phone</t>
   </si>
   <si>
     <t>custom:product</t>
   </si>
   <si>
-    <t>kvfedosimov@sberbank.ru</t>
-  </si>
-  <si>
-    <t>Сheck Point</t>
-  </si>
-  <si>
-    <t>Саенко Марк Николаевич</t>
-  </si>
-  <si>
-    <t>Сбербанк</t>
-  </si>
-  <si>
-    <t>mnsaenko@sberbank.ru</t>
-  </si>
-  <si>
-    <t>+79186899069</t>
-  </si>
-  <si>
-    <t>Сергей Иванович Батаев</t>
-  </si>
-  <si>
-    <t>serg@nbdbank.ru</t>
-  </si>
-  <si>
-    <t>Родион Родион</t>
-  </si>
-  <si>
-    <t>Dubrovskiy.R.V@sberbank.ru</t>
-  </si>
-  <si>
-    <t>Ветров Юрий 0</t>
-  </si>
-  <si>
-    <t>Vetrov.Y.O@sberbank.ru</t>
-  </si>
-  <si>
-    <t>Максим Григорьев 0</t>
-  </si>
-  <si>
-    <t>mgrigorev@vtb.ru</t>
-  </si>
-  <si>
-    <t>s@timerbank.ru</t>
-  </si>
-  <si>
-    <t>tn@bars-open.ru</t>
-  </si>
-  <si>
-    <t>averichev.dv@vtb24.ru</t>
-  </si>
-  <si>
-    <t>Потапенко Николай Владимирович Потапенко</t>
-  </si>
-  <si>
-    <t>potapenko@viking.spb.ru</t>
-  </si>
-  <si>
-    <t>Антон Дёмин</t>
-  </si>
-  <si>
-    <t>ademin@raiffeisen.ru</t>
-  </si>
-  <si>
-    <t>+78127219900</t>
-  </si>
-  <si>
-    <t>Клигман Леонид</t>
-  </si>
-  <si>
-    <t>leonid@nbdbank.ru</t>
-  </si>
-  <si>
-    <t>+78312308061</t>
-  </si>
-  <si>
-    <t>kznGainutdinovRV@KAZAN.VTB24.RU</t>
-  </si>
-  <si>
-    <t>Антон Колпаков 0</t>
-  </si>
-  <si>
-    <t>Банк Аверс</t>
-  </si>
-  <si>
-    <t>kolpakoval@aversbank.ru</t>
-  </si>
-  <si>
-    <t>bogdanov@vbrr.ru</t>
-  </si>
-  <si>
-    <t>+74959330343</t>
-  </si>
-  <si>
-    <t>Ильнур Шукаев</t>
-  </si>
-  <si>
-    <t>ilnur.shaykhiev@raiffeisen.ru</t>
-  </si>
-  <si>
-    <t>+74957219900</t>
-  </si>
-  <si>
-    <t>Глеб</t>
-  </si>
-  <si>
-    <t>popov@vtb24.ru</t>
-  </si>
-  <si>
-    <t>+79636552193</t>
-  </si>
-  <si>
-    <t>iplitvintsev@sberbank.ru</t>
-  </si>
-  <si>
-    <t>vsetrofimenko@sberbank.ru</t>
-  </si>
-  <si>
-    <t>Магомед Чаниев Магомед</t>
-  </si>
-  <si>
-    <t>Сберсервис</t>
-  </si>
-  <si>
-    <t>mschaniev@sberbank.ru</t>
-  </si>
-  <si>
-    <t>shipunov@vbrr.ru</t>
-  </si>
-  <si>
-    <t>Аузинь Юрий Вальтерович 0</t>
-  </si>
-  <si>
-    <t>ПАО «МЕТКОМБАНК»</t>
-  </si>
-  <si>
-    <t>AuzinYV@metcom.ru</t>
-  </si>
-  <si>
-    <t>potapenkon@viking.spb.ru</t>
-  </si>
-  <si>
-    <t>Смирнов Илья</t>
-  </si>
-  <si>
-    <t>ismirnov@tkbip.ru</t>
-  </si>
-  <si>
-    <t>+79112201774</t>
-  </si>
-  <si>
-    <t>dsergeev2@rencredit.ru</t>
-  </si>
-  <si>
-    <t>Сергей Локтионов</t>
-  </si>
-  <si>
-    <t>common.spb@raiffeisen.ru</t>
-  </si>
-  <si>
-    <t>+78121186808</t>
-  </si>
-  <si>
-    <t>Алексей Громов</t>
-  </si>
-  <si>
-    <t>agromov@raiffeisen.ru</t>
-  </si>
-  <si>
-    <t>+4957219900</t>
-  </si>
-  <si>
-    <t>Анатолий Лепехин</t>
-  </si>
-  <si>
-    <t>anatoly_lepekhin@sberbank-cib.ru</t>
-  </si>
-  <si>
-    <t>+79067898989</t>
-  </si>
-  <si>
-    <t>Ольга</t>
-  </si>
-  <si>
-    <t>kalinovaov@vtb24.ru</t>
-  </si>
-  <si>
-    <t>krasnova@mcbank.ru</t>
-  </si>
-  <si>
-    <t>АКБ ""Кузбассхимбанк"" (ПАО) 0</t>
-  </si>
-  <si>
-    <t>gerasimov@kuzbasshimbank.ru</t>
-  </si>
-  <si>
-    <t>korpachev@cbrca.ru</t>
-  </si>
-  <si>
-    <t>Ирина</t>
-  </si>
-  <si>
-    <t>mzolotarevskaya@rencredit.ru</t>
-  </si>
-  <si>
-    <t>dsasulin@rencredit.ru</t>
-  </si>
-  <si>
-    <t>+74957834600</t>
-  </si>
-  <si>
-    <t>Владимир Савинов</t>
-  </si>
-  <si>
-    <t>savinov@nbdbank.ru</t>
-  </si>
-  <si>
-    <t>Турик Владислав Васильевич '-</t>
-  </si>
-  <si>
-    <t>tvv1@cbr.ru</t>
-  </si>
-  <si>
-    <t>+84957539705</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>pavlukevichd@aversbank.ru</t>
-  </si>
-  <si>
-    <t>Петр Салмасов</t>
-  </si>
-  <si>
-    <t>ПАО Сбербанк</t>
-  </si>
-  <si>
-    <t>ppsalmasov@sberbank.ru</t>
-  </si>
-  <si>
-    <t>+79826102999</t>
-  </si>
-  <si>
-    <t>Михаил Полетаев</t>
-  </si>
-  <si>
-    <t>mpoletaev@sberbank.ru</t>
-  </si>
-  <si>
-    <t>+79036908355</t>
-  </si>
-  <si>
-    <t>assist-Rusanova@vtb24.ru</t>
-  </si>
-  <si>
-    <t>Демидов СергейДемидов Сергей МихайловичДемидов Сергей 0</t>
-  </si>
-  <si>
-    <t>ТКБ Инвестмент Партнерс</t>
-  </si>
-  <si>
-    <t>S.Demidov@tkbip.ru</t>
-  </si>
-  <si>
-    <t>+79500397875</t>
-  </si>
-  <si>
-    <t>bkw@vbrr.ru</t>
-  </si>
-  <si>
-    <t>Андрей Александрович Савельев</t>
-  </si>
-  <si>
-    <t>safety01@okbank.ru</t>
-  </si>
-  <si>
-    <t>Александр ПавловАлександр Александр</t>
-  </si>
-  <si>
-    <t>pavlovas1@vtb.ru</t>
-  </si>
-  <si>
-    <t>Александр Новожилов 0</t>
-  </si>
-  <si>
-    <t>novozhilov@mcbank.ru</t>
-  </si>
-  <si>
-    <t>Сергей Мясоедов</t>
-  </si>
-  <si>
-    <t>mss@lanta.ru</t>
-  </si>
-  <si>
-    <t>Москвич Дмитрий НиколаевичМосквич Дмитрий Николаевич 0</t>
-  </si>
-  <si>
-    <t>МТС Банк</t>
-  </si>
-  <si>
-    <t>dmoskvich@mtsbank.ru</t>
-  </si>
-  <si>
-    <t>Андрей Левшин</t>
-  </si>
-  <si>
-    <t>levis@viking.spb.ru</t>
-  </si>
-  <si>
-    <t>+79215857799</t>
-  </si>
-  <si>
-    <t>Антон Антон</t>
-  </si>
-  <si>
-    <t>ДИТ ЦБ РФ</t>
-  </si>
-  <si>
-    <t>krishtoforap@cbrf-dit.ru</t>
-  </si>
-  <si>
-    <t>ЕленаСафаровГорбанк СахаровДмитрий0</t>
-  </si>
-  <si>
-    <t>Петербургский городской банк, АКБ, ЗАО0</t>
-  </si>
-  <si>
-    <t>bank@gorbank.spb.ru</t>
-  </si>
-  <si>
-    <t>Владислав Метелев 5045</t>
-  </si>
-  <si>
-    <t>НБД Банк</t>
-  </si>
-  <si>
-    <t>vlad@nbdbank.ru</t>
-  </si>
-  <si>
-    <t>+78314343980</t>
-  </si>
-  <si>
-    <t>Сачков АлександрСачков Александр 0</t>
-  </si>
-  <si>
-    <t>Банк ВТБ</t>
-  </si>
-  <si>
-    <t>sachkov.aa@vtb.ru</t>
-  </si>
-  <si>
-    <t>Игорь ГодинИгорь ГодинИгорь Годин 0</t>
-  </si>
-  <si>
-    <t>Банк ВБРР (АО)Банк ВБРР (АО)Банк ВБРР (АО)</t>
-  </si>
-  <si>
-    <t>godin_im@vbrr.ru</t>
-  </si>
-  <si>
-    <t>Andrey_Zuev@sberbank-am.ru</t>
-  </si>
-  <si>
-    <t>zhelanova@mcbank.ru</t>
-  </si>
-  <si>
-    <t>Андрей Петелин</t>
-  </si>
-  <si>
-    <t>APetelin@viking.spb.ru</t>
-  </si>
-  <si>
-    <t>+78123203320</t>
-  </si>
-  <si>
-    <t>Артем ВолощукАртем Волощук 0</t>
-  </si>
-  <si>
-    <t>ПАО СбербанкСбербанк</t>
-  </si>
-  <si>
-    <t>asvoloshuk@sberbank.ru</t>
-  </si>
-  <si>
-    <t>Олег АксеновОлег Аксенов 0</t>
-  </si>
-  <si>
-    <t>o.aksenov@tkbip.ru</t>
-  </si>
-  <si>
-    <t>Подрез Александр ВладимировичПодрез Александр Владимирович 0</t>
-  </si>
-  <si>
-    <t>Комплексные системы</t>
-  </si>
-  <si>
-    <t>avp@okbank.ru</t>
-  </si>
-  <si>
-    <t>pnazarov@mtsbank.ru</t>
-  </si>
-  <si>
-    <t>Scst</t>
-  </si>
-  <si>
-    <t>scst@sberbank.ru</t>
-  </si>
-  <si>
-    <t>Александр ПавловАлександр Павлов 0</t>
-  </si>
-  <si>
-    <t>pavlovas@nwr.vtb.ru</t>
-  </si>
-  <si>
-    <t>Дмитрий БатуроДмитрий Батуро Дмитрий</t>
-  </si>
-  <si>
-    <t>dbaturo@spb.mtsbank.ru</t>
-  </si>
-  <si>
-    <t>Сергей МясоедовСергей Мясоедов 0</t>
-  </si>
-  <si>
-    <t>АКБ «Ланта-Банк» (АО)</t>
-  </si>
-  <si>
-    <t>myasoedov.ss@lanta.ru</t>
-  </si>
-  <si>
-    <t>Роман ВербицкийВербицкий Роман 0</t>
-  </si>
-  <si>
-    <t>Чайна Констракшн Банк</t>
-  </si>
-  <si>
-    <t>sb@ccbrussia.ru</t>
-  </si>
-  <si>
-    <t>Сергей Сачков</t>
-  </si>
-  <si>
-    <t>sachkov@vtb24.ru</t>
-  </si>
-  <si>
-    <t>+79636552281</t>
-  </si>
-  <si>
-    <t>Денис Ефимов</t>
-  </si>
-  <si>
-    <t>d.efimov@okbank.ru</t>
-  </si>
-  <si>
-    <t>Васильев Артем АлександровичВасильев Артем Александрович 0</t>
-  </si>
-  <si>
-    <t>VasiljevArA@tambov.vtb24.ru</t>
-  </si>
-  <si>
-    <t>Фадеев АлександрФадеев Александр 0</t>
-  </si>
-  <si>
-    <t>Банк Сбербанк</t>
-  </si>
-  <si>
-    <t>fadeev.a.and@sberbank.ru</t>
-  </si>
-  <si>
-    <t>Александр РубчукАлександр Рубчук 0</t>
-  </si>
-  <si>
-    <t>A.Rubchuk@mtsbank.ru</t>
-  </si>
-  <si>
-    <t>Александр Серебряков</t>
-  </si>
-  <si>
-    <t>aserebryakov@vtb.ru</t>
-  </si>
-  <si>
-    <t>Руслан БялькинРуслан БялькинРуслан Бялькин 0</t>
-  </si>
-  <si>
-    <t>СбербанкСбербанкСбербанк</t>
-  </si>
-  <si>
-    <t>byalkin.r.ni@sberbank.ru</t>
-  </si>
-  <si>
-    <t>Колотушкин Владимир МихайловичКолотушкин Владимир Михайлович 0</t>
-  </si>
-  <si>
-    <t>Сбербанк-Технологии</t>
-  </si>
-  <si>
-    <t>vmkolotushkin.sbsrv@sberbank.ru</t>
-  </si>
-  <si>
-    <t>Николай Потапенко</t>
-  </si>
-  <si>
-    <t>nikep@viking.spb.ru</t>
-  </si>
-  <si>
-    <t>Борис Леонидович</t>
-  </si>
-  <si>
-    <t>pbl@cbr.ru</t>
-  </si>
-  <si>
-    <t>Александр МедведкинАлександр МедведкинАлександр Медведкин 0</t>
-  </si>
-  <si>
-    <t>medvedkin.a.vy@sberbank.ru</t>
-  </si>
-  <si>
-    <t>Александр Нагорнюк Александр</t>
-  </si>
-  <si>
-    <t>a.nagornyuk@tkbip.ru</t>
-  </si>
-  <si>
-    <t>Andreevmn@cbr.ru</t>
-  </si>
-  <si>
-    <t>Сергей Врунов</t>
-  </si>
-  <si>
-    <t>vrunov@vtb24.ru</t>
-  </si>
-  <si>
-    <t>Артём Артём</t>
-  </si>
-  <si>
-    <t>adminsecuritydit@cbr.ru</t>
-  </si>
-  <si>
-    <t>Егор Морозов Егор</t>
-  </si>
-  <si>
-    <t>Банк Россия</t>
-  </si>
-  <si>
-    <t>03svc_ckibkrd@cbr.ru</t>
-  </si>
-  <si>
-    <t>puv@msk.vtb.ru</t>
-  </si>
-  <si>
-    <t>tpp@cbr.ru</t>
-  </si>
-  <si>
-    <t>Гершинский Александр ЯковлевичГершинский Александр 0</t>
-  </si>
-  <si>
-    <t>a.gershinskiy@tkbip.ru</t>
-  </si>
-  <si>
-    <t>Илья Смирнов</t>
-  </si>
-  <si>
-    <t>i.smirnov@tkbip.ru</t>
-  </si>
-  <si>
-    <t>+78123327332</t>
-  </si>
-  <si>
-    <t>Булдаков Сергей 0</t>
-  </si>
-  <si>
-    <t>s.buldakov@tkbip.ru</t>
-  </si>
-  <si>
-    <t>Банк Спутник 0</t>
-  </si>
-  <si>
-    <t>utushev@banksputnik.ru</t>
-  </si>
-  <si>
-    <t>palex@vtb.ru</t>
-  </si>
-  <si>
-    <t>Алексей Родионов</t>
-  </si>
-  <si>
-    <t>rodionovay@vtb24.ru</t>
-  </si>
-  <si>
-    <t>Александр Кремлёв</t>
-  </si>
-  <si>
-    <t>69svc_ckib@cbr.ru</t>
-  </si>
-  <si>
-    <t>+79138550014</t>
-  </si>
-  <si>
-    <t>Игорь</t>
-  </si>
-  <si>
-    <t>kia10@cbr.ru</t>
-  </si>
-  <si>
-    <t>Evgeny Starostin</t>
-  </si>
-  <si>
-    <t>sej2@cbr.ru</t>
-  </si>
-  <si>
-    <t>Сергей Алексеевич Замотин Замотин</t>
-  </si>
-  <si>
-    <t>zamotin@vtb.ru</t>
-  </si>
-  <si>
-    <t>+79859283615</t>
-  </si>
-  <si>
-    <t>safety@okbank.ru</t>
-  </si>
-  <si>
-    <t>georgiy.repin@open.ru</t>
-  </si>
-  <si>
-    <t>Александр Косенков Александр</t>
-  </si>
-  <si>
-    <t>kosenkov.ap@lanta.ru</t>
-  </si>
-  <si>
-    <t>popovich.di@open.ru</t>
-  </si>
-  <si>
-    <t>Pigareva Natalia 0</t>
-  </si>
-  <si>
-    <t>pigareva.nb@lanta.ru</t>
-  </si>
-  <si>
-    <t>Сергей Нагибин</t>
-  </si>
-  <si>
-    <t>atv1@cbr.ru</t>
-  </si>
-  <si>
-    <t>+4957539724</t>
-  </si>
-  <si>
-    <t>ofinoshin@rencredit.ru</t>
-  </si>
-  <si>
-    <t>Денис Александрович Бурлаков Бурлаков</t>
-  </si>
-  <si>
-    <t>burlakovda@vtb24.ru</t>
-  </si>
-  <si>
-    <t>Александр Шевчук Александр</t>
-  </si>
-  <si>
-    <t>ООО "Сбербанк Факторинг"</t>
-  </si>
-  <si>
-    <t>ANShevchuk@sberbank-factoring.ru</t>
-  </si>
-  <si>
-    <t>Ramil Khabibrakhmanov</t>
-  </si>
-  <si>
-    <t>ramil@vtb24.ru</t>
-  </si>
-  <si>
-    <t>Александр Махиня</t>
-  </si>
-  <si>
-    <t>aleksandr.makhinya@open.ru</t>
-  </si>
-  <si>
-    <t>+74957558866</t>
-  </si>
-  <si>
-    <t>sachkov.aa@vtb24.ru</t>
-  </si>
-  <si>
-    <t>Николай МорозенковНиколай Морозенков 0</t>
-  </si>
-  <si>
-    <t>nmorozenkov@vtb.ru</t>
-  </si>
-  <si>
-    <t>Николай Ермаков 0</t>
-  </si>
-  <si>
-    <t>env@vtb.ru</t>
-  </si>
-  <si>
-    <t>Алексей ТаловиковАлексей Таловиков 0</t>
-  </si>
-  <si>
-    <t>talovikovav@vtb.ru</t>
-  </si>
-  <si>
-    <t>Сергей ПоповСергей Попов 0</t>
-  </si>
-  <si>
-    <t>popovsg@nwr.vtb.ru</t>
-  </si>
-  <si>
-    <t>Ермаков Николай Владимирович Ермаков</t>
-  </si>
-  <si>
-    <t>env@spb.vtb24.ru</t>
-  </si>
-  <si>
-    <t>nshirokova@raiffeisen.ru</t>
-  </si>
-  <si>
-    <t>innokentiy.andruschenko@open.ru</t>
-  </si>
-  <si>
-    <t>ПавелШУРОВ П.Ю. Шуров0</t>
-  </si>
-  <si>
-    <t>АО ВБРР</t>
-  </si>
-  <si>
-    <t>shurov@vbrr.ru</t>
-  </si>
-  <si>
-    <t>kaa8@cbr.ru</t>
-  </si>
-  <si>
-    <t>ij23@msk.vtb.ru</t>
-  </si>
-  <si>
-    <t>+74957397799</t>
-  </si>
-  <si>
-    <t>dmironov@raiffeisen.ru</t>
-  </si>
-  <si>
-    <t>Максим Позняк</t>
-  </si>
-  <si>
-    <t>pozniak@open.ru</t>
-  </si>
-  <si>
-    <t>+4957775656</t>
-  </si>
-  <si>
-    <t>avv5@cbr.ru</t>
-  </si>
-  <si>
-    <t>aristov.sy@vtb24.ru</t>
-  </si>
-  <si>
-    <t>Morozova.NN@vtb24.ru</t>
-  </si>
-  <si>
-    <t>romanov@aversbank.ru</t>
-  </si>
-  <si>
-    <t>psv@cbr.ru</t>
-  </si>
-  <si>
-    <t>aserebryakov@msk.vtb.ru</t>
-  </si>
-  <si>
-    <t>ksv1@cbr.ru</t>
-  </si>
-  <si>
-    <t>+4957719100</t>
-  </si>
-  <si>
-    <t>Таловиков Алексей Викторович Таловиков</t>
-  </si>
-  <si>
-    <t>talovikov.av@spb.vtb24.ru</t>
-  </si>
-  <si>
-    <t>Андрей Валентинович Понкин Андрей Валентинович</t>
-  </si>
-  <si>
-    <t>ponkinav@metcom.ru</t>
-  </si>
-  <si>
-    <t>+49575580940</t>
-  </si>
-  <si>
-    <t>Денис Лукин</t>
-  </si>
-  <si>
-    <t>Райффайзенбанк</t>
-  </si>
-  <si>
-    <t>dlukin@raiffeisen.ru</t>
-  </si>
-  <si>
-    <t>+79213427716</t>
-  </si>
-  <si>
-    <t>Лаптев Сергей Вячеславович</t>
-  </si>
-  <si>
-    <t>АО“Райффайзенбанк”</t>
-  </si>
-  <si>
-    <t>SLAPTEV@raiffeisen.ru</t>
-  </si>
-  <si>
-    <t>+79217600243</t>
-  </si>
-  <si>
-    <t>Тяпкова Ирина Александровна</t>
-  </si>
-  <si>
-    <t>Чек Пойнт Софтвэр Текнолоджиз (Раша) (ПАО Банк «ФК Открытие»)</t>
-  </si>
-  <si>
-    <t>tyapkova@open.ru</t>
-  </si>
-  <si>
-    <t>+79296151518</t>
-  </si>
-  <si>
-    <t>Валерий Константинов</t>
-  </si>
-  <si>
-    <t>valery.konstantinov@raiffeisen.ru</t>
-  </si>
-  <si>
-    <t>+79214140863</t>
-  </si>
-  <si>
-    <t>Батуро Дмитрий Александрович Батуро</t>
-  </si>
-  <si>
-    <t>DBaturo@mtsbank.ru</t>
-  </si>
-  <si>
-    <t>+79052769590</t>
-  </si>
-  <si>
-    <t>Александр Иванов</t>
-  </si>
-  <si>
-    <t>Банк Открытие Факторинг</t>
-  </si>
-  <si>
-    <t>ivanov_alva@open.ru</t>
-  </si>
-  <si>
-    <t>+79055660085</t>
-  </si>
-  <si>
-    <t>Николай Рыжков</t>
-  </si>
-  <si>
-    <t>Банк ВБРР (АО)</t>
-  </si>
-  <si>
-    <t>ryzhkov@vbrr.ru</t>
-  </si>
-  <si>
-    <t>Wwww</t>
-  </si>
-  <si>
-    <t>www</t>
-  </si>
-  <si>
-    <t>vtbzrdubxggwibtiat@wqcefp.com</t>
-  </si>
-  <si>
-    <t>+79112281982</t>
-  </si>
-  <si>
-    <t>Сергей Ануфриев</t>
-  </si>
-  <si>
-    <t>anufriev@vbrr.ru</t>
-  </si>
-  <si>
-    <t>+79169271233</t>
-  </si>
-  <si>
-    <t>Дмитрий Андреевич</t>
-  </si>
-  <si>
-    <t>Горбанк</t>
-  </si>
-  <si>
-    <t>info@gorbank.spb.ru</t>
-  </si>
-  <si>
-    <t>+78124499581</t>
-  </si>
-  <si>
-    <t>Искендер</t>
-  </si>
-  <si>
-    <t>Eriell</t>
-  </si>
-  <si>
-    <t>daniil.belitskiy@open.ru</t>
-  </si>
-  <si>
-    <t>+79152427699</t>
-  </si>
-  <si>
-    <t>Лещева Наталья Сергеевна</t>
-  </si>
-  <si>
-    <t>РНКБ</t>
-  </si>
-  <si>
-    <t>LeschevaNS@rncb.ru</t>
-  </si>
-  <si>
-    <t>+79152979215</t>
-  </si>
-  <si>
-    <t>Виктор Янковский</t>
-  </si>
-  <si>
-    <t>yankovskiyvf@rncb.ru</t>
-  </si>
-  <si>
-    <t>Пётр Сапьян</t>
-  </si>
-  <si>
-    <t>psapyan@renins.com</t>
-  </si>
-  <si>
-    <t>r.gainutdinov@uralfd.ru</t>
-  </si>
-  <si>
-    <t>o.bannikov@uralfd.ru</t>
-  </si>
-  <si>
-    <t>+73422401075</t>
-  </si>
-  <si>
-    <t>Алексей Лаврусевич</t>
-  </si>
-  <si>
-    <t>ЦФТ</t>
-  </si>
-  <si>
-    <t>a.lavrusevich@cft.ru</t>
-  </si>
-  <si>
-    <t>Вусал Мамедов</t>
-  </si>
-  <si>
-    <t>v.mamedov@ibam.ru</t>
-  </si>
-  <si>
-    <t>+74959377727</t>
-  </si>
-  <si>
-    <t>Павел Надёжин</t>
-  </si>
-  <si>
-    <t>nadezhin@mbbru.ru</t>
-  </si>
-  <si>
-    <t>+79165705599</t>
-  </si>
-  <si>
-    <t>lisitsynrb@eliz-spb.ru</t>
-  </si>
-  <si>
-    <t>Ярослав Буслаев</t>
-  </si>
-  <si>
-    <t>j.buslaev@cft.ru</t>
-  </si>
-  <si>
-    <t>+73833364949</t>
-  </si>
-  <si>
-    <t>Вячеслав Валенко Вячеслав</t>
-  </si>
-  <si>
-    <t>v.valenko@cft.ru</t>
-  </si>
-  <si>
-    <t>VDemchenko@vtb-leasing.com</t>
-  </si>
-  <si>
-    <t>Юрий Панкратьев</t>
-  </si>
-  <si>
-    <t>py@pscb.ru</t>
-  </si>
-  <si>
-    <t>ka@pscb.ru</t>
-  </si>
-  <si>
-    <t>Прокопенко Игорь</t>
-  </si>
-  <si>
-    <t>Igor.Prokopenko@atekselectro.ru</t>
-  </si>
-  <si>
-    <t>+79219763215</t>
-  </si>
-  <si>
-    <t>Максачук</t>
-  </si>
-  <si>
-    <t>Петербургский социальный коммерческий банк, ОАО</t>
-  </si>
-  <si>
-    <t>mpv@pscb.ru</t>
-  </si>
-  <si>
-    <t>aglebov@vtb-leasing.ru</t>
-  </si>
-  <si>
-    <t>+4955141651</t>
-  </si>
-  <si>
-    <t>Олег Суханов</t>
-  </si>
-  <si>
-    <t>osukhanov@renins.com</t>
-  </si>
-  <si>
-    <t>korobkinaa@onlanta.ru</t>
-  </si>
-  <si>
-    <t>Набокин Алексей Михайлович 0</t>
-  </si>
-  <si>
-    <t>Банк ДОМ.РФ</t>
-  </si>
-  <si>
-    <t>aleksei.nabokin@domrf.ru</t>
-  </si>
-  <si>
-    <t>Воронцов Артем Алексеевич 0</t>
-  </si>
-  <si>
-    <t>Дом РФ</t>
-  </si>
-  <si>
-    <t>artem.vorontsov@domrf.ru</t>
-  </si>
-  <si>
-    <t>Владимир МорозовВладимир Морозов 0</t>
-  </si>
-  <si>
-    <t>Северный народный банк</t>
-  </si>
-  <si>
-    <t>morozov@sevnb.ru</t>
-  </si>
-  <si>
-    <t>Станислав КучинитскийСтанислав Кучинитский 0</t>
-  </si>
-  <si>
-    <t>OpenWay Group</t>
-  </si>
-  <si>
-    <t>skuchinskiy@openwaygroup.com</t>
-  </si>
-  <si>
-    <t>VladimirВладимир Volkov</t>
-  </si>
-  <si>
-    <t>dxnet@pscb.ru</t>
-  </si>
-  <si>
-    <t>sag@pscb.ru</t>
-  </si>
-  <si>
-    <t>next@anrb.ru</t>
-  </si>
-  <si>
-    <t>robert@lantaservice.com</t>
-  </si>
-  <si>
-    <t>ДмитрийГырлин ГырлинДмитрий</t>
-  </si>
-  <si>
-    <t>dgirlin@spb.renins.com</t>
-  </si>
-  <si>
-    <t>Дмитрий Боровков</t>
-  </si>
-  <si>
-    <t>LeshchenkoLV@vtb-emng.ru</t>
-  </si>
-  <si>
-    <t>+78123333445</t>
-  </si>
-  <si>
-    <t>s.osipchuk@cft.ru</t>
-  </si>
-  <si>
-    <t>isbnk@isbnk.ru</t>
-  </si>
-  <si>
-    <t>Сергей Дуликов Сергей</t>
-  </si>
-  <si>
-    <t>Межгосударственный банк</t>
-  </si>
-  <si>
-    <t>dsa@isbnk.ru</t>
-  </si>
-  <si>
-    <t>MakarovAO@rncb.ru</t>
-  </si>
-  <si>
-    <t>Andrey.Kuznetsov@cft.ru</t>
-  </si>
-  <si>
-    <t>mto@anrb.ru</t>
-  </si>
-  <si>
-    <t>Евгений Скляров</t>
-  </si>
-  <si>
-    <t>sen@vtbsd.ru</t>
-  </si>
-  <si>
-    <t>+74959563070</t>
-  </si>
-  <si>
-    <t>Прокопенко Юрий</t>
-  </si>
-  <si>
-    <t>yprokopenko@ncrimea.ru</t>
-  </si>
-  <si>
-    <t>+3652788222</t>
-  </si>
-  <si>
-    <t>Сергей Иосифович Ковалев</t>
-  </si>
-  <si>
-    <t>ksi@isbnk.ru</t>
-  </si>
-  <si>
-    <t>AMikhailov2@renins.com</t>
-  </si>
-  <si>
-    <t>Игорь Павлович Шнурко</t>
-  </si>
-  <si>
-    <t>i.shnurko@cft.ru</t>
-  </si>
-  <si>
-    <t>ausov@renins.com</t>
-  </si>
-  <si>
-    <t>Дмитрий Гырлин</t>
-  </si>
-  <si>
-    <t>renins@renins.com</t>
-  </si>
-  <si>
-    <t>Столяров Олег Семёнович</t>
-  </si>
-  <si>
-    <t>ООО «ЛАНИТ-ТЕХНОЛОГИИ»</t>
-  </si>
-  <si>
-    <t>stolyarov@onlanta.ru</t>
-  </si>
-  <si>
-    <t>VBulgakov@renins.com</t>
-  </si>
-  <si>
-    <t>Марина Богданова</t>
-  </si>
-  <si>
-    <t>m.pahomova@sdm.ur.ru</t>
-  </si>
-  <si>
-    <t>Солонин Владимир 0</t>
-  </si>
-  <si>
-    <t>СДМ-Банк</t>
-  </si>
-  <si>
-    <t>solonin@sdm.ru</t>
-  </si>
-  <si>
-    <t>okhizhnyak@vtb-leasing.com</t>
-  </si>
-  <si>
-    <t>Александр Александр</t>
-  </si>
-  <si>
-    <t>LitvinovAS@rncb.ru</t>
-  </si>
-  <si>
-    <t>Горбунов Б. В.</t>
-  </si>
-  <si>
-    <t>ООО</t>
-  </si>
-  <si>
-    <t>IvanovAL@vtb-bank.by</t>
-  </si>
-  <si>
-    <t>+79037315782</t>
-  </si>
-  <si>
-    <t>Владислав Лебедев</t>
-  </si>
-  <si>
-    <t>vlebedev@renins.com</t>
-  </si>
-  <si>
-    <t>Виктор Шевцов Виктор</t>
-  </si>
-  <si>
-    <t>Центр Финансовых Технологий</t>
-  </si>
-  <si>
-    <t>v.shevtsov@cft.ru</t>
-  </si>
-  <si>
-    <t>Samarov@sdm.ru</t>
-  </si>
-  <si>
-    <t>Мухаморин</t>
-  </si>
-  <si>
-    <t>pmukhamorin@openv.ru</t>
-  </si>
-  <si>
-    <t>Воронко</t>
-  </si>
-  <si>
-    <t>Петербургский социальный коммерческий банк, ЗАО</t>
-  </si>
-  <si>
-    <t>vdv@pscb.ru</t>
-  </si>
-  <si>
-    <t>Олег Илюхин</t>
-  </si>
-  <si>
-    <t>sdm@sdm.ru</t>
-  </si>
-  <si>
-    <t>+4957059090</t>
-  </si>
-  <si>
-    <t>Барский</t>
-  </si>
-  <si>
-    <t>Балтийская металлургическая компания</t>
-  </si>
-  <si>
-    <t>bmc@baltmetcompany.ru</t>
-  </si>
-  <si>
-    <t>Алексей Смольянинов 0</t>
-  </si>
-  <si>
-    <t>aleksei.smolyaninov@domrf.ru</t>
-  </si>
-  <si>
-    <t>+74957758686</t>
-  </si>
-  <si>
-    <t>Банк Урал ФД 0</t>
-  </si>
-  <si>
-    <t>d.volkov@uralfd.ru</t>
-  </si>
-  <si>
-    <t>Шельдяков Илья Андреевич Шельдяков Илья Андреевич</t>
-  </si>
-  <si>
-    <t>ПСКБ Банк</t>
-  </si>
-  <si>
-    <t>sia@pscb.ru</t>
-  </si>
-  <si>
-    <t>+79213505460</t>
-  </si>
-  <si>
-    <t>Артём КайгородовАртём Кайгородов 0</t>
-  </si>
-  <si>
-    <t>Энерголайн</t>
-  </si>
-  <si>
-    <t>kaygorodov@topenergoline.ru</t>
-  </si>
-  <si>
-    <t>kan@lantan.ru</t>
-  </si>
-  <si>
-    <t>Борис Богданов Прио 0</t>
-  </si>
-  <si>
-    <t>oib@priovtb.com</t>
-  </si>
-  <si>
-    <t>Олег</t>
-  </si>
-  <si>
-    <t>iljuhin@sdm.ru</t>
-  </si>
-  <si>
-    <t>Беляев</t>
-  </si>
-  <si>
-    <t>vbelyaev@spb.renins.com</t>
-  </si>
-  <si>
-    <t>krasnik@sdm.ru</t>
-  </si>
-  <si>
-    <t>austinov@renins.com</t>
-  </si>
-  <si>
-    <t>Машков Дмитрий Вячеславович 0</t>
-  </si>
-  <si>
-    <t>НКО Монета</t>
-  </si>
-  <si>
-    <t>dmitry.mashkov@payanyway.ru</t>
-  </si>
-  <si>
-    <t>sell@ilanta-soft.ru</t>
-  </si>
-  <si>
-    <t>СергейВащенко Сергей Борисович Ващенко0</t>
-  </si>
-  <si>
-    <t>sbv@isbnk.ru</t>
-  </si>
-  <si>
-    <t>e.prishlyak@cft.ru</t>
-  </si>
-  <si>
-    <t>Ушаков П.</t>
-  </si>
-  <si>
-    <t>ushakov_pa@vtbdc.ru</t>
-  </si>
-  <si>
-    <t>+84957950042</t>
-  </si>
-  <si>
-    <t>Дмитрий Егоров</t>
-  </si>
-  <si>
-    <t>OpenWayOpenWay Group</t>
-  </si>
-  <si>
-    <t>degorov@openwaygroup.com</t>
-  </si>
-  <si>
-    <t>+79219620589</t>
-  </si>
-  <si>
-    <t>spb@uralsibbank.ru</t>
-  </si>
-  <si>
-    <t>+73472735835</t>
-  </si>
-  <si>
-    <t>vei@gibank.ru</t>
-  </si>
-  <si>
-    <t>Konstantin.Tikhonov@ca-cib.com</t>
-  </si>
-  <si>
-    <t>Иван Маршев</t>
-  </si>
-  <si>
-    <t>ivan.marshev@unicredit.ru</t>
-  </si>
-  <si>
-    <t>+74952587258</t>
-  </si>
-  <si>
-    <t>Oleg.Rumyantsev@unicreditgroup.ru</t>
-  </si>
-  <si>
-    <t>Andrey Kuritcyn</t>
-  </si>
-  <si>
-    <t>a.kuritcyn@tinkoff.ru</t>
-  </si>
-  <si>
-    <t>Alexander.Vishnyakov@unicreditgroup.ru</t>
-  </si>
-  <si>
-    <t>ib@tinkoff.ru</t>
-  </si>
-  <si>
-    <t>Dvavilova.external@unicredit.ru</t>
-  </si>
-  <si>
-    <t>Антон ФинюковКреди Агриколь Credit Agricole 0</t>
-  </si>
-  <si>
-    <t>anton.finyukov@ca-cib.com</t>
-  </si>
-  <si>
-    <t>Дмитрий Евдокимов</t>
-  </si>
-  <si>
-    <t>Сити Инвест Банк, АО</t>
-  </si>
-  <si>
-    <t>evdokimov@cibank.ru</t>
-  </si>
-  <si>
-    <t>+78123240690</t>
-  </si>
-  <si>
-    <t>Vitaly.Novoselov@unicreditgroup.ru</t>
-  </si>
-  <si>
-    <t>Алексей ЛукиныхАлексей ЛукиныхАлексей Лукиных 0</t>
-  </si>
-  <si>
-    <t>АО ЮниКредит БанкАО ЮниКредит БанкЮникредит Банк</t>
-  </si>
-  <si>
-    <t>aleksey.lukinykh@unicredit.ru</t>
-  </si>
-  <si>
-    <t>Лисицин АлександрЛисицин АлександрЛисицин Александр 0</t>
-  </si>
-  <si>
-    <t>UnicreditUnicreditUnicredit</t>
-  </si>
-  <si>
-    <t>aleksandr.lisitsin@unicredit.ru</t>
-  </si>
-  <si>
-    <t>Владимир ГорскинВладимир Горскин 0</t>
-  </si>
-  <si>
-    <t>Тинькофф Банк</t>
-  </si>
-  <si>
-    <t>v.gorskin@tinkoff.ru</t>
-  </si>
-  <si>
-    <t>Александр</t>
-  </si>
-  <si>
-    <t>alexander.shamshurin@nordea.ru</t>
-  </si>
-  <si>
-    <t>Борис Павлов</t>
-  </si>
-  <si>
-    <t>soloveva_ta2@minbank.ru</t>
-  </si>
-  <si>
-    <t>Виталий Ян</t>
-  </si>
-  <si>
-    <t>vitaly.yan@unicreditgroup.ru</t>
-  </si>
-  <si>
-    <t>Владимир Сорокин 0</t>
-  </si>
-  <si>
-    <t>Юникредит Банк</t>
-  </si>
-  <si>
-    <t>Vladimir.Sorokin@unicredit.ru</t>
-  </si>
-  <si>
-    <t>Варюхова НатальяВарюхова Наталья 0</t>
-  </si>
-  <si>
-    <t>Банк Уралсиб</t>
-  </si>
-  <si>
-    <t>varyukhovanv@spb.uralsib.ru</t>
-  </si>
-  <si>
-    <t>Тинькофф Банк (Кредиты)</t>
-  </si>
-  <si>
-    <t>credit@tinkoff.ru</t>
-  </si>
-  <si>
-    <t>Alexey.Shishkin@unicreditgroup.ru</t>
-  </si>
-  <si>
-    <t>Борис ПавловБорис Павлов 0</t>
-  </si>
-  <si>
-    <t>Московский Индустриальный Банк</t>
-  </si>
-  <si>
-    <t>pavlov_ba@minbank.ru</t>
-  </si>
-  <si>
-    <t>Алексей ИвлевАлексей Ивлев 0</t>
-  </si>
-  <si>
-    <t>aleksey.ivlev@nordea.ru</t>
-  </si>
-  <si>
-    <t>Евгений ЕрмаковЕрмаков Евгений 0</t>
-  </si>
-  <si>
-    <t>e.i.ermakov@tinkoff.ru</t>
-  </si>
-  <si>
-    <t>Игорь ЛапшинИгорь Лапшин 0</t>
-  </si>
-  <si>
-    <t>igor.lapshin@unicredit.ru</t>
-  </si>
-  <si>
-    <t>Александр Колесов</t>
-  </si>
-  <si>
-    <t>alexander.kolesov@unicreditgroup.ru</t>
-  </si>
-  <si>
-    <t>+4952587377</t>
-  </si>
-  <si>
-    <t>Авдеев Александр</t>
-  </si>
-  <si>
-    <t>AvdeevAS@uralsib.ru</t>
-  </si>
-  <si>
-    <t>+74957851212</t>
-  </si>
-  <si>
-    <t>Пачин Илья Сергеевич</t>
-  </si>
-  <si>
-    <t>pachinis@uralsib.ru</t>
-  </si>
-  <si>
-    <t>+79036824107</t>
-  </si>
-  <si>
-    <t>Евгений БузукЕвгений Бузук 0</t>
-  </si>
-  <si>
-    <t>buzukek@uralsib.ru</t>
-  </si>
-  <si>
-    <t>Шумский</t>
-  </si>
-  <si>
-    <t>shum@alexbank.ru</t>
-  </si>
-  <si>
-    <t>МИнБанк 0</t>
-  </si>
-  <si>
-    <t>astahov@minbank.ru</t>
-  </si>
-  <si>
-    <t>Mytarevali@Uralsib.Ru 0</t>
-  </si>
-  <si>
-    <t>mytarevaLI@uralsib.ru</t>
-  </si>
-  <si>
-    <t>Герман</t>
-  </si>
-  <si>
-    <t>German.Kopylov@unicreditgroup.ru</t>
-  </si>
-  <si>
-    <t>Александр Межлумов</t>
-  </si>
-  <si>
-    <t>vbank@co.voz.ru</t>
-  </si>
-  <si>
-    <t>+4957770888</t>
-  </si>
-  <si>
-    <t>zhukov_am@minbank.ru</t>
-  </si>
-  <si>
-    <t>Синченко Алексей Дмитриевич 0</t>
-  </si>
-  <si>
-    <t>Московский Индустриальный Банк (МИнБ), филиал г.Краснодар</t>
-  </si>
-  <si>
-    <t>sinchenko_ad@minbank.ru</t>
-  </si>
-  <si>
-    <t>Алексей ВалерьевичАлексей Горшков Горшков0</t>
-  </si>
-  <si>
-    <t>Нордеа Банк</t>
-  </si>
-  <si>
-    <t>aleksey.gorshkov@nordea.ru</t>
-  </si>
-  <si>
-    <t>orlov_aa@minbank.ru</t>
-  </si>
-  <si>
-    <t>Ян</t>
-  </si>
-  <si>
-    <t>ЮниКредит Банк, ЗАО</t>
-  </si>
-  <si>
-    <t>unicredit@unicreditgroup.ru</t>
-  </si>
-  <si>
-    <t>Игорь Тараник</t>
-  </si>
-  <si>
-    <t>igor.taranik@unicreditgroup.ru</t>
-  </si>
-  <si>
-    <t>+78123468410</t>
-  </si>
-  <si>
-    <t>Скляренко М.В. Евгений</t>
-  </si>
-  <si>
-    <t>ЕСЭ-ГГ</t>
-  </si>
-  <si>
-    <t>Lipatev_es@minbank.ru</t>
-  </si>
-  <si>
-    <t>+79148800486</t>
-  </si>
-  <si>
-    <t>Рамиль</t>
-  </si>
-  <si>
-    <t>ramil.sharafiev@unicredit.ru</t>
-  </si>
-  <si>
-    <t>+79654422434</t>
-  </si>
-  <si>
-    <t>Maxim Rukavichkin</t>
-  </si>
-  <si>
-    <t>maxim.rukavichkin@unicredit.ru</t>
-  </si>
-  <si>
-    <t>Mikhail Lipin</t>
-  </si>
-  <si>
-    <t>m.lipin@tinkoff.ru</t>
-  </si>
-  <si>
-    <t>alexander.markov@unicredit.ru</t>
-  </si>
-  <si>
-    <t>Сергей Захаров</t>
-  </si>
-  <si>
-    <t>zah_sa@uralsib.ru</t>
-  </si>
-  <si>
-    <t>MatveevAV@ufa.uralsib.ru</t>
-  </si>
-  <si>
-    <t>Sergey.Shchipkov@unicredit.ru</t>
-  </si>
-  <si>
-    <t>Евгений Лоханков</t>
-  </si>
-  <si>
-    <t>Evgeny.Lokhankov@unicreditgroup.ru</t>
-  </si>
-  <si>
-    <t>Александр Иванович</t>
-  </si>
-  <si>
-    <t>bordukov@minbank.ru</t>
-  </si>
-  <si>
-    <t>aae@aktivbank.ru</t>
-  </si>
-  <si>
-    <t>+78342475270</t>
-  </si>
-  <si>
-    <t>an_bebchik@minbank.ru</t>
-  </si>
-  <si>
-    <t>cso@tinkoff.ru</t>
-  </si>
-  <si>
-    <t>ВалерийВалерий СемичевВалерий Семичев СемичевВалерий</t>
-  </si>
-  <si>
-    <t>АО "Сити Инвест Банк"0</t>
-  </si>
-  <si>
-    <t>vsemichev@cibank.ru</t>
-  </si>
-  <si>
-    <t>Жебрик ЕвгенийЖебрик Евгений СергеевичЖебрик Евгений 0</t>
-  </si>
-  <si>
-    <t>ООО «САНТОРИН» (БалтБет)БалтБет Санторин</t>
-  </si>
-  <si>
-    <t>ezhebrik@baltbet.ru</t>
-  </si>
-  <si>
-    <t>+79117757921</t>
-  </si>
-  <si>
-    <t>Рубинский Максим АндреевичРубинский Максим АндреевичРубинский Максим Андреевич 0</t>
-  </si>
-  <si>
-    <t>Санторин</t>
-  </si>
-  <si>
-    <t>mrubinskiy@baltbet.ru</t>
-  </si>
-  <si>
-    <t>+79523666693</t>
-  </si>
-  <si>
-    <t>ralko@alexbank.ru</t>
-  </si>
-  <si>
-    <t>Apex Consulting Group 0</t>
-  </si>
-  <si>
-    <t>sbabalaev@cs-center.ru</t>
-  </si>
-  <si>
-    <t>Артем Мачин</t>
-  </si>
-  <si>
-    <t>amachin@BALTBET.RU</t>
-  </si>
-  <si>
-    <t>+79216523613</t>
-  </si>
-  <si>
-    <t>Чепель</t>
-  </si>
-  <si>
-    <t>Завод по переработке пластмасс им. Комсомольской правды, ОАО</t>
-  </si>
-  <si>
-    <t>assistant@kp-plant.ru</t>
-  </si>
-  <si>
-    <t>_ _</t>
-  </si>
-  <si>
-    <t>shabalinoe@baltbet.ru</t>
-  </si>
-  <si>
-    <t>i.zlobin@fbs.com</t>
-  </si>
-  <si>
-    <t>Дмитрий Аниканов</t>
-  </si>
-  <si>
-    <t>adg@vebcapital.ru</t>
-  </si>
-  <si>
-    <t>+79167709597</t>
-  </si>
-  <si>
-    <t>Assist 0</t>
-  </si>
-  <si>
-    <t>kkostenko@assist.ru</t>
-  </si>
-  <si>
-    <t>danikanov@vebcapital.ru</t>
-  </si>
-  <si>
-    <t>Александр Сулейманов</t>
-  </si>
-  <si>
-    <t>sav@baltbet.com</t>
-  </si>
-  <si>
-    <t>+78123854733</t>
-  </si>
-  <si>
-    <t>Sementsova@assist-24.ru</t>
-  </si>
-  <si>
-    <t>Денис</t>
-  </si>
-  <si>
-    <t>dkurnakov@assist.ru</t>
-  </si>
-  <si>
-    <t>Евгений Александрович ВоропаевЕвгений Воропаев ВоропаевЕвгений</t>
-  </si>
-  <si>
-    <t>ООО "Атлантик-М"</t>
-  </si>
-  <si>
-    <t>evoropaev@bkfon.ru</t>
-  </si>
-  <si>
-    <t>gm.assistant@zepter.ru</t>
-  </si>
-  <si>
-    <t>custom:company12</t>
-  </si>
-  <si>
-    <t>adadadad</t>
-  </si>
-  <si>
-    <t>email///?"|":":</t>
+    <t>custom:company</t>
   </si>
 </sst>
 </file>
@@ -2256,26 +2256,26 @@
   <dimension ref="A1:F282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -2283,37 +2283,37 @@
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2335,13 +2335,13 @@
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2349,11 +2349,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2363,7 +2363,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2373,7 +2373,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2383,7 +2383,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2391,11 +2391,11 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2403,28 +2403,28 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2433,7 +2433,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
@@ -2441,13 +2441,13 @@
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2457,40 +2457,40 @@
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2499,7 +2499,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2509,7 +2509,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2517,13 +2517,13 @@
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2533,7 +2533,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2541,13 +2541,13 @@
     </row>
     <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2557,7 +2557,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2565,14 +2565,14 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2581,7 +2581,7 @@
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2589,53 +2589,53 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2645,7 +2645,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2653,11 +2653,11 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2667,7 +2667,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2675,11 +2675,11 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2689,21 +2689,21 @@
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2711,25 +2711,25 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2737,32 +2737,32 @@
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2771,7 +2771,7 @@
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2779,19 +2779,19 @@
     </row>
     <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" s="3"/>
     </row>
@@ -2799,21 +2799,21 @@
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2821,11 +2821,11 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2833,11 +2833,11 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2845,11 +2845,11 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2857,13 +2857,13 @@
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2871,27 +2871,27 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2899,13 +2899,13 @@
     </row>
     <row r="51" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2913,29 +2913,29 @@
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2943,13 +2943,13 @@
     </row>
     <row r="54" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2959,7 +2959,7 @@
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2969,7 +2969,7 @@
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2977,27 +2977,27 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3005,13 +3005,13 @@
     </row>
     <row r="59" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3019,13 +3019,13 @@
     </row>
     <row r="60" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3035,7 +3035,7 @@
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3043,11 +3043,11 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3055,13 +3055,13 @@
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3069,11 +3069,11 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3081,13 +3081,13 @@
     </row>
     <row r="65" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3095,13 +3095,13 @@
     </row>
     <row r="66" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3109,25 +3109,25 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3135,13 +3135,13 @@
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3149,13 +3149,13 @@
     </row>
     <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3163,13 +3163,13 @@
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3177,11 +3177,11 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3189,13 +3189,13 @@
     </row>
     <row r="73" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3203,13 +3203,13 @@
     </row>
     <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3217,11 +3217,11 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -3229,11 +3229,11 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3241,13 +3241,13 @@
     </row>
     <row r="77" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3255,17 +3255,17 @@
     </row>
     <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" s="3"/>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3281,11 +3281,11 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3293,11 +3293,11 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3305,13 +3305,13 @@
     </row>
     <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3321,7 +3321,7 @@
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3331,7 +3331,7 @@
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3339,13 +3339,13 @@
     </row>
     <row r="85" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3353,45 +3353,45 @@
     </row>
     <row r="86" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3401,7 +3401,7 @@
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3409,11 +3409,11 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3421,25 +3421,25 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -3447,11 +3447,11 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -3459,14 +3459,14 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -3475,7 +3475,7 @@
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -3485,7 +3485,7 @@
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -3493,13 +3493,13 @@
     </row>
     <row r="97" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -3509,7 +3509,7 @@
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -3517,13 +3517,13 @@
     </row>
     <row r="99" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -3531,14 +3531,14 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -3547,7 +3547,7 @@
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -3555,11 +3555,11 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -3567,13 +3567,13 @@
     </row>
     <row r="103" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="3"/>
@@ -3581,11 +3581,11 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -3593,14 +3593,14 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -3609,7 +3609,7 @@
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -3617,13 +3617,13 @@
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -3631,13 +3631,13 @@
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -3645,13 +3645,13 @@
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -3659,13 +3659,13 @@
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -3673,11 +3673,11 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -3687,7 +3687,7 @@
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -3697,7 +3697,7 @@
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -3705,13 +3705,13 @@
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3721,7 +3721,7 @@
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -3731,10 +3731,10 @@
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
@@ -3743,24 +3743,24 @@
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -3769,7 +3769,7 @@
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -3779,7 +3779,7 @@
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -3789,7 +3789,7 @@
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3797,11 +3797,11 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -3811,7 +3811,7 @@
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -3821,7 +3821,7 @@
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -3831,21 +3831,21 @@
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3853,127 +3853,127 @@
     </row>
     <row r="127" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
     <row r="128" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="D129" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
     <row r="130" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="D130" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
     <row r="133" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="D133" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="E133" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F133" s="3"/>
     </row>
     <row r="134" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -3981,91 +3981,91 @@
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="D135" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
     <row r="136" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="D137" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="D138" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="D139" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -4073,11 +4073,11 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -4087,7 +4087,7 @@
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -4097,23 +4097,23 @@
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -4121,31 +4121,31 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F146" s="3"/>
     </row>
@@ -4153,7 +4153,7 @@
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -4161,27 +4161,27 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
     <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4191,7 +4191,7 @@
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -4199,11 +4199,11 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4213,7 +4213,7 @@
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -4221,27 +4221,27 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -4251,21 +4251,21 @@
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -4275,7 +4275,7 @@
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4283,13 +4283,13 @@
     </row>
     <row r="158" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -4297,13 +4297,13 @@
     </row>
     <row r="159" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -4311,13 +4311,13 @@
     </row>
     <row r="160" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -4325,13 +4325,13 @@
     </row>
     <row r="161" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -4339,11 +4339,11 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4353,7 +4353,7 @@
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -4363,7 +4363,7 @@
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -4373,7 +4373,7 @@
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -4381,11 +4381,11 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -4393,14 +4393,14 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
@@ -4409,7 +4409,7 @@
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -4419,7 +4419,7 @@
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -4427,17 +4427,17 @@
     </row>
     <row r="170" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F170" s="3"/>
     </row>
@@ -4445,7 +4445,7 @@
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -4455,7 +4455,7 @@
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -4465,7 +4465,7 @@
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -4473,39 +4473,39 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -4515,7 +4515,7 @@
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
       <c r="C177" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -4523,15 +4523,15 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F178" s="3"/>
     </row>
@@ -4539,7 +4539,7 @@
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -4547,11 +4547,11 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -4559,13 +4559,13 @@
     </row>
     <row r="181" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -4575,7 +4575,7 @@
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -4583,11 +4583,11 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -4595,17 +4595,17 @@
     </row>
     <row r="184" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F184" s="3"/>
     </row>
@@ -4613,23 +4613,23 @@
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F185" s="3"/>
     </row>
     <row r="186" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -4637,27 +4637,27 @@
     </row>
     <row r="187" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="D187" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -4665,13 +4665,13 @@
     </row>
     <row r="189" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -4681,7 +4681,7 @@
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -4689,11 +4689,11 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -4701,13 +4701,13 @@
     </row>
     <row r="192" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -4715,27 +4715,27 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
     <row r="194" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -4743,27 +4743,27 @@
     </row>
     <row r="195" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -4771,29 +4771,29 @@
     </row>
     <row r="197" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="D197" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
     </row>
     <row r="198" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -4803,7 +4803,7 @@
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -4811,11 +4811,11 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -4823,11 +4823,11 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -4835,11 +4835,11 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -4849,7 +4849,7 @@
       <c r="A203" s="3"/>
       <c r="B203" s="4"/>
       <c r="C203" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -4859,7 +4859,7 @@
       <c r="A204" s="3"/>
       <c r="B204" s="4"/>
       <c r="C204" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -4867,13 +4867,13 @@
     </row>
     <row r="205" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -4883,7 +4883,7 @@
       <c r="A206" s="3"/>
       <c r="B206" s="4"/>
       <c r="C206" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -4891,13 +4891,13 @@
     </row>
     <row r="207" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -4907,7 +4907,7 @@
       <c r="A208" s="3"/>
       <c r="B208" s="4"/>
       <c r="C208" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -4915,30 +4915,30 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B209" s="4"/>
       <c r="C209" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
     </row>
     <row r="210" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="D210" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
@@ -4947,11 +4947,11 @@
       <c r="A211" s="3"/>
       <c r="B211" s="4"/>
       <c r="C211" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F211" s="3"/>
     </row>
@@ -4959,7 +4959,7 @@
       <c r="A212" s="3"/>
       <c r="B212" s="4"/>
       <c r="C212" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -4969,7 +4969,7 @@
       <c r="A213" s="3"/>
       <c r="B213" s="4"/>
       <c r="C213" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -4977,15 +4977,15 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F214" s="3"/>
     </row>
@@ -4993,7 +4993,7 @@
       <c r="A215" s="3"/>
       <c r="B215" s="5"/>
       <c r="C215" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="3"/>
@@ -5001,11 +5001,11 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B216" s="5"/>
       <c r="C216" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -5015,7 +5015,7 @@
       <c r="A217" s="3"/>
       <c r="B217" s="4"/>
       <c r="C217" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="3"/>
@@ -5025,7 +5025,7 @@
       <c r="A218" s="3"/>
       <c r="B218" s="4"/>
       <c r="C218" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -5035,7 +5035,7 @@
       <c r="A219" s="3"/>
       <c r="B219" s="4"/>
       <c r="C219" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -5045,7 +5045,7 @@
       <c r="A220" s="3"/>
       <c r="B220" s="4"/>
       <c r="C220" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -5053,11 +5053,11 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -5065,17 +5065,17 @@
     </row>
     <row r="222" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F222" s="3"/>
     </row>
@@ -5083,7 +5083,7 @@
       <c r="A223" s="3"/>
       <c r="B223" s="4"/>
       <c r="C223" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="3"/>
@@ -5091,13 +5091,13 @@
     </row>
     <row r="224" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -5105,13 +5105,13 @@
     </row>
     <row r="225" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -5119,13 +5119,13 @@
     </row>
     <row r="226" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -5133,11 +5133,11 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -5145,11 +5145,11 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B228" s="4"/>
       <c r="C228" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -5157,11 +5157,11 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -5169,13 +5169,13 @@
     </row>
     <row r="230" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -5183,13 +5183,13 @@
     </row>
     <row r="231" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -5197,11 +5197,11 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B232" s="4"/>
       <c r="C232" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -5211,7 +5211,7 @@
       <c r="A233" s="3"/>
       <c r="B233" s="4"/>
       <c r="C233" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -5219,13 +5219,13 @@
     </row>
     <row r="234" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -5233,11 +5233,11 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -5245,11 +5245,11 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -5257,13 +5257,13 @@
     </row>
     <row r="237" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -5271,55 +5271,55 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F238" s="3"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F239" s="3"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D240" s="3"/>
       <c r="E240" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F240" s="3"/>
     </row>
     <row r="241" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -5327,11 +5327,11 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -5339,11 +5339,11 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -5351,11 +5351,11 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -5363,11 +5363,11 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D245" s="1"/>
       <c r="E245" s="3"/>
@@ -5375,15 +5375,15 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D246" s="3"/>
       <c r="E246" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F246" s="3"/>
     </row>
@@ -5391,7 +5391,7 @@
       <c r="A247" s="3"/>
       <c r="B247" s="4"/>
       <c r="C247" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -5399,13 +5399,13 @@
     </row>
     <row r="248" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -5413,13 +5413,13 @@
     </row>
     <row r="249" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -5429,7 +5429,7 @@
       <c r="A250" s="3"/>
       <c r="B250" s="4"/>
       <c r="C250" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -5437,13 +5437,13 @@
     </row>
     <row r="251" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -5451,55 +5451,55 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D252" s="3"/>
       <c r="E252" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F252" s="3"/>
     </row>
     <row r="253" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="D253" s="3"/>
       <c r="E253" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F253" s="3"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F254" s="3"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B255" s="4"/>
       <c r="C255" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -5507,11 +5507,11 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B256" s="4"/>
       <c r="C256" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -5521,7 +5521,7 @@
       <c r="A257" s="3"/>
       <c r="B257" s="4"/>
       <c r="C257" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -5529,25 +5529,25 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F258" s="3"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -5557,7 +5557,7 @@
       <c r="A260" s="3"/>
       <c r="B260" s="4"/>
       <c r="C260" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -5565,11 +5565,11 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="3"/>
@@ -5577,11 +5577,11 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -5591,11 +5591,11 @@
       <c r="A263" s="3"/>
       <c r="B263" s="4"/>
       <c r="C263" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D263" s="3"/>
       <c r="E263" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F263" s="3"/>
     </row>
@@ -5603,7 +5603,7 @@
       <c r="A264" s="3"/>
       <c r="B264" s="4"/>
       <c r="C264" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -5613,7 +5613,7 @@
       <c r="A265" s="3"/>
       <c r="B265" s="4"/>
       <c r="C265" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -5621,13 +5621,13 @@
     </row>
     <row r="266" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -5635,43 +5635,43 @@
     </row>
     <row r="267" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>576</v>
       </c>
       <c r="D267" s="3"/>
       <c r="E267" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F267" s="3"/>
     </row>
     <row r="268" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>580</v>
       </c>
       <c r="D268" s="3"/>
       <c r="E268" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="B269" s="4"/>
       <c r="C269" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -5679,11 +5679,11 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -5691,27 +5691,27 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D271" s="3"/>
       <c r="E271" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F271" s="3"/>
     </row>
     <row r="272" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -5719,11 +5719,11 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -5733,7 +5733,7 @@
       <c r="A274" s="3"/>
       <c r="B274" s="4"/>
       <c r="C274" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -5741,25 +5741,25 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B275" s="4"/>
       <c r="C275" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D275" s="3"/>
       <c r="E275" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F275" s="3"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -5767,29 +5767,29 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D277" s="3"/>
       <c r="E277" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F277" s="3"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D278" s="3"/>
       <c r="E278" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F278" s="3"/>
     </row>
@@ -5797,7 +5797,7 @@
       <c r="A279" s="3"/>
       <c r="B279" s="4"/>
       <c r="C279" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -5805,11 +5805,11 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B280" s="4"/>
       <c r="C280" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -5817,13 +5817,13 @@
     </row>
     <row r="281" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -5833,7 +5833,7 @@
       <c r="A282" s="3"/>
       <c r="B282" s="4"/>
       <c r="C282" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
